--- a/state_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/state_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U165"/>
+  <dimension ref="A1:U181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0114793374443913</v>
+        <v>0.0114997777344714</v>
       </c>
       <c r="H2" t="n">
         <v>0.11</v>
@@ -651,7 +651,7 @@
         <v>0.008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0114793374443913</v>
+        <v>0.0114997777344714</v>
       </c>
       <c r="H3" t="n">
         <v>0.11</v>
@@ -1072,7 +1072,7 @@
         <v>0.032</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0991313015852345</v>
+        <v>0.09905651776282121</v>
       </c>
       <c r="H8" t="n">
         <v>1.2591</v>
@@ -1083,7 +1083,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.00276</v>
+        <v>0.00281</v>
       </c>
       <c r="M8" t="n">
         <v>0.14</v>
@@ -1153,7 +1153,7 @@
         <v>0.032</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0991313015852345</v>
+        <v>0.09905651776282121</v>
       </c>
       <c r="H9" t="n">
         <v>1.2591</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00276</v>
+        <v>0.00281</v>
       </c>
       <c r="M9" t="n">
         <v>0.14</v>
@@ -1230,10 +1230,10 @@
         <v>0.0505</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125711538461538</v>
+        <v>0.125719230769231</v>
       </c>
       <c r="H10" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I10" t="n">
         <v>0.3468</v>
@@ -1307,10 +1307,10 @@
         <v>0.0505</v>
       </c>
       <c r="G11" t="n">
-        <v>0.125711538461538</v>
+        <v>0.125719230769231</v>
       </c>
       <c r="H11" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I11" t="n">
         <v>0.3468</v>
@@ -1538,7 +1538,7 @@
         <v>0.0225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0580999536382577</v>
+        <v>0.0581031724743774</v>
       </c>
       <c r="H14" t="n">
         <v>0.791</v>
@@ -1615,7 +1615,7 @@
         <v>0.0225</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0580999536382577</v>
+        <v>0.0581031724743774</v>
       </c>
       <c r="H15" t="n">
         <v>0.791</v>
@@ -1696,7 +1696,7 @@
         <v>0.01</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0127033818109498</v>
+        <v>0.0127194952044387</v>
       </c>
       <c r="H16" t="n">
         <v>0.11</v>
@@ -1777,7 +1777,7 @@
         <v>0.01</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0127033818109498</v>
+        <v>0.0127194952044387</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.00554</v>
+        <v>0.00256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0067064757584417</v>
+        <v>0.0053113539728179</v>
       </c>
       <c r="H22" t="n">
         <v>0.0264272792576312</v>
@@ -2209,10 +2209,10 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00696</v>
+        <v>0.00214</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="N22" t="n">
         <v>0.01739</v>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00554</v>
+        <v>0.00256</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0067064757584417</v>
+        <v>0.0053113539728179</v>
       </c>
       <c r="H23" t="n">
         <v>0.0264272792576312</v>
@@ -2290,10 +2290,10 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00696</v>
+        <v>0.00214</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="N23" t="n">
         <v>0.01739</v>
@@ -2360,7 +2360,7 @@
         <v>0.012</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0848548097911269</v>
+        <v>0.0847418537352244</v>
       </c>
       <c r="H24" t="n">
         <v>1.2591</v>
@@ -2371,7 +2371,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.002</v>
+        <v>0.00124</v>
       </c>
       <c r="M24" t="n">
         <v>0.13329</v>
@@ -2441,7 +2441,7 @@
         <v>0.012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0848548097911269</v>
+        <v>0.0847418537352244</v>
       </c>
       <c r="H25" t="n">
         <v>1.2591</v>
@@ -2452,7 +2452,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.002</v>
+        <v>0.00124</v>
       </c>
       <c r="M25" t="n">
         <v>0.13329</v>
@@ -2518,10 +2518,10 @@
         <v>0.028</v>
       </c>
       <c r="G26" t="n">
-        <v>0.113305084745763</v>
+        <v>0.113294915254237</v>
       </c>
       <c r="H26" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I26" t="n">
         <v>0.3426</v>
@@ -2529,7 +2529,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.014</v>
+        <v>0.0139</v>
       </c>
       <c r="M26" t="n">
         <v>0.16922</v>
@@ -2595,10 +2595,10 @@
         <v>0.028</v>
       </c>
       <c r="G27" t="n">
-        <v>0.113305084745763</v>
+        <v>0.113294915254237</v>
       </c>
       <c r="H27" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I27" t="n">
         <v>0.3426</v>
@@ -2606,7 +2606,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.014</v>
+        <v>0.0139</v>
       </c>
       <c r="M27" t="n">
         <v>0.16922</v>
@@ -2984,7 +2984,7 @@
         <v>0.0105</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0133241161876869</v>
+        <v>0.0133328115716569</v>
       </c>
       <c r="H32" t="n">
         <v>0.11</v>
@@ -3065,7 +3065,7 @@
         <v>0.0105</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0133241161876869</v>
+        <v>0.0133328115716569</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
@@ -3146,7 +3146,7 @@
         <v>127</v>
       </c>
       <c r="G34" t="n">
-        <v>378.605671171862</v>
+        <v>378.602952465612</v>
       </c>
       <c r="H34" t="n">
         <v>2880</v>
@@ -3231,7 +3231,7 @@
         <v>127</v>
       </c>
       <c r="G35" t="n">
-        <v>378.605671171862</v>
+        <v>378.602952465612</v>
       </c>
       <c r="H35" t="n">
         <v>2880</v>
@@ -3316,7 +3316,7 @@
         <v>127</v>
       </c>
       <c r="G36" t="n">
-        <v>378.605671171862</v>
+        <v>378.602952465612</v>
       </c>
       <c r="H36" t="n">
         <v>2880</v>
@@ -3401,7 +3401,7 @@
         <v>127</v>
       </c>
       <c r="G37" t="n">
-        <v>378.605671171862</v>
+        <v>378.602952465612</v>
       </c>
       <c r="H37" t="n">
         <v>2880</v>
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.00472</v>
+        <v>0.00173</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0071025482486816</v>
+        <v>0.0055309793539815</v>
       </c>
       <c r="H38" t="n">
         <v>0.055699557920691</v>
@@ -3497,10 +3497,10 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.00674</v>
+        <v>0.0014</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00809</v>
+        <v>0.00646</v>
       </c>
       <c r="N38" t="n">
         <v>0.02031</v>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.00472</v>
+        <v>0.00173</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0071025482486816</v>
+        <v>0.0055309793539815</v>
       </c>
       <c r="H39" t="n">
         <v>0.055699557920691</v>
@@ -3578,10 +3578,10 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.00674</v>
+        <v>0.0014</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00809</v>
+        <v>0.00646</v>
       </c>
       <c r="N39" t="n">
         <v>0.02031</v>
@@ -3648,7 +3648,7 @@
         <v>0.008699999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0806119144296623</v>
+        <v>0.0805014652760348</v>
       </c>
       <c r="H40" t="n">
         <v>1.2591</v>
@@ -3659,7 +3659,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M40" t="n">
         <v>0.123</v>
@@ -3729,7 +3729,7 @@
         <v>0.008699999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0806119144296623</v>
+        <v>0.0805014652760348</v>
       </c>
       <c r="H41" t="n">
         <v>1.2591</v>
@@ -3740,7 +3740,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M41" t="n">
         <v>0.123</v>
@@ -3803,16 +3803,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.023</v>
+        <v>0.02255</v>
       </c>
       <c r="G42" t="n">
-        <v>0.107610664990495</v>
+        <v>0.107615928493694</v>
       </c>
       <c r="H42" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3505</v>
+        <v>0.35065</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3823,7 +3823,7 @@
         <v>0.1557</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2748</v>
+        <v>0.27489</v>
       </c>
       <c r="O42" t="n">
         <v>1840392.992</v>
@@ -3880,16 +3880,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.023</v>
+        <v>0.02255</v>
       </c>
       <c r="G43" t="n">
-        <v>0.107610664990495</v>
+        <v>0.107615928493694</v>
       </c>
       <c r="H43" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3505</v>
+        <v>0.35065</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -3900,7 +3900,7 @@
         <v>0.1557</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2748</v>
+        <v>0.27489</v>
       </c>
       <c r="O43" t="n">
         <v>1840392.992</v>
@@ -4272,13 +4272,13 @@
         <v>1.6</v>
       </c>
       <c r="G48" t="n">
-        <v>1.59094813879669</v>
+        <v>1.58568715557428</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.25619</v>
+        <v>3.17827</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4289,7 +4289,7 @@
         <v>2.1776</v>
       </c>
       <c r="N48" t="n">
-        <v>3.112</v>
+        <v>3.02726</v>
       </c>
       <c r="O48" t="n">
         <v>1840392.992</v>
@@ -4353,7 +4353,7 @@
         <v>0.011</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0150979286486267</v>
+        <v>0.0151016899758058</v>
       </c>
       <c r="H49" t="n">
         <v>0.11</v>
@@ -4434,7 +4434,7 @@
         <v>0.011</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0150979286486267</v>
+        <v>0.0151016899758058</v>
       </c>
       <c r="H50" t="n">
         <v>0.11</v>
@@ -4515,7 +4515,7 @@
         <v>124</v>
       </c>
       <c r="G51" t="n">
-        <v>299.972337838529</v>
+        <v>299.969619132279</v>
       </c>
       <c r="H51" t="n">
         <v>2420</v>
@@ -4600,7 +4600,7 @@
         <v>124</v>
       </c>
       <c r="G52" t="n">
-        <v>299.972337838529</v>
+        <v>299.969619132279</v>
       </c>
       <c r="H52" t="n">
         <v>2420</v>
@@ -4685,7 +4685,7 @@
         <v>124</v>
       </c>
       <c r="G53" t="n">
-        <v>299.972337838529</v>
+        <v>299.969619132279</v>
       </c>
       <c r="H53" t="n">
         <v>2420</v>
@@ -4770,7 +4770,7 @@
         <v>124</v>
       </c>
       <c r="G54" t="n">
-        <v>299.972337838529</v>
+        <v>299.969619132279</v>
       </c>
       <c r="H54" t="n">
         <v>2420</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.00335</v>
+        <v>0.00166</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005998901677119</v>
+        <v>0.0046117596442351</v>
       </c>
       <c r="H55" t="n">
         <v>0.055699557920691</v>
@@ -4866,10 +4866,10 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00342</v>
+        <v>0.00145</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00691</v>
+        <v>0.00584</v>
       </c>
       <c r="N55" t="n">
         <v>0.01178</v>
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.00335</v>
+        <v>0.00166</v>
       </c>
       <c r="G56" t="n">
-        <v>0.005998901677119</v>
+        <v>0.0046117596442351</v>
       </c>
       <c r="H56" t="n">
         <v>0.055699557920691</v>
@@ -4947,10 +4947,10 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.00342</v>
+        <v>0.00145</v>
       </c>
       <c r="M56" t="n">
-        <v>0.00691</v>
+        <v>0.00584</v>
       </c>
       <c r="N56" t="n">
         <v>0.01178</v>
@@ -5017,7 +5017,7 @@
         <v>0.0051</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07731760452737529</v>
+        <v>0.07720905252942541</v>
       </c>
       <c r="H57" t="n">
         <v>1.2591</v>
@@ -5028,7 +5028,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M57" t="n">
         <v>0.11532</v>
@@ -5098,7 +5098,7 @@
         <v>0.0051</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07731760452737529</v>
+        <v>0.07720905252942541</v>
       </c>
       <c r="H58" t="n">
         <v>1.2591</v>
@@ -5109,7 +5109,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M58" t="n">
         <v>0.11532</v>
@@ -5175,24 +5175,24 @@
         <v>0.015</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0978184486892596</v>
+        <v>0.0978326462813229</v>
       </c>
       <c r="H59" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I59" t="n">
-        <v>0.32</v>
+        <v>0.32015</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1314</v>
+        <v>0.13126</v>
       </c>
       <c r="N59" t="n">
-        <v>0.2654</v>
+        <v>0.26561</v>
       </c>
       <c r="O59" t="n">
         <v>1840392.992</v>
@@ -5252,24 +5252,24 @@
         <v>0.015</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0978184486892596</v>
+        <v>0.0978326462813229</v>
       </c>
       <c r="H60" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I60" t="n">
-        <v>0.32</v>
+        <v>0.32015</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1314</v>
+        <v>0.13126</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2654</v>
+        <v>0.26561</v>
       </c>
       <c r="O60" t="n">
         <v>1840392.992</v>
@@ -5641,13 +5641,13 @@
         <v>1.536</v>
       </c>
       <c r="G65" t="n">
-        <v>1.36251637153528</v>
+        <v>1.3585414064339</v>
       </c>
       <c r="H65" t="n">
         <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>3.21756</v>
+        <v>3.11852</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5722,7 +5722,7 @@
         <v>0.012</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0161565497052028</v>
+        <v>0.0161589755674971</v>
       </c>
       <c r="H66" t="n">
         <v>0.11</v>
@@ -5803,7 +5803,7 @@
         <v>0.012</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0161565497052028</v>
+        <v>0.0161589755674971</v>
       </c>
       <c r="H67" t="n">
         <v>0.11</v>
@@ -5884,10 +5884,10 @@
         <v>124</v>
       </c>
       <c r="G68" t="n">
-        <v>320.398751726689</v>
+        <v>346.952407726085</v>
       </c>
       <c r="H68" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I68" t="n">
         <v>730</v>
@@ -5969,10 +5969,10 @@
         <v>124</v>
       </c>
       <c r="G69" t="n">
-        <v>320.398751726689</v>
+        <v>346.952407726085</v>
       </c>
       <c r="H69" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I69" t="n">
         <v>730</v>
@@ -6054,10 +6054,10 @@
         <v>124</v>
       </c>
       <c r="G70" t="n">
-        <v>320.398751726689</v>
+        <v>346.952407726085</v>
       </c>
       <c r="H70" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I70" t="n">
         <v>730</v>
@@ -6139,10 +6139,10 @@
         <v>124</v>
       </c>
       <c r="G71" t="n">
-        <v>320.398751726689</v>
+        <v>346.952407726085</v>
       </c>
       <c r="H71" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I71" t="n">
         <v>730</v>
@@ -6221,10 +6221,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.00357</v>
+        <v>0.00196</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0064114062967823</v>
+        <v>0.0051808501728841</v>
       </c>
       <c r="H72" t="n">
         <v>0.055699557920691</v>
@@ -6235,10 +6235,10 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.00342</v>
+        <v>0.00176</v>
       </c>
       <c r="M72" t="n">
-        <v>0.008489999999999999</v>
+        <v>0.00657</v>
       </c>
       <c r="N72" t="n">
         <v>0.01619</v>
@@ -6302,10 +6302,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.00357</v>
+        <v>0.00196</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0064114062967823</v>
+        <v>0.0051808501728841</v>
       </c>
       <c r="H73" t="n">
         <v>0.055699557920691</v>
@@ -6316,10 +6316,10 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.00342</v>
+        <v>0.00176</v>
       </c>
       <c r="M73" t="n">
-        <v>0.008489999999999999</v>
+        <v>0.00657</v>
       </c>
       <c r="N73" t="n">
         <v>0.01619</v>
@@ -6386,7 +6386,7 @@
         <v>0.0051</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0758338224271651</v>
+        <v>0.0757278763667142</v>
       </c>
       <c r="H74" t="n">
         <v>1.2591</v>
@@ -6397,7 +6397,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M74" t="n">
         <v>0.12158</v>
@@ -6467,7 +6467,7 @@
         <v>0.0051</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0758338224271651</v>
+        <v>0.0757278763667142</v>
       </c>
       <c r="H75" t="n">
         <v>1.2591</v>
@@ -6478,7 +6478,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M75" t="n">
         <v>0.12158</v>
@@ -6541,27 +6541,27 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.0145</v>
+        <v>0.0144</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0942584790251793</v>
+        <v>0.0942920488474825</v>
       </c>
       <c r="H76" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I76" t="n">
-        <v>0.32</v>
+        <v>0.32015</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.0075</v>
+        <v>0.00775</v>
       </c>
       <c r="M76" t="n">
-        <v>0.1362</v>
+        <v>0.13606</v>
       </c>
       <c r="N76" t="n">
-        <v>0.2699</v>
+        <v>0.27011</v>
       </c>
       <c r="O76" t="n">
         <v>1840392.992</v>
@@ -6618,27 +6618,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0145</v>
+        <v>0.0144</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0942584790251793</v>
+        <v>0.0942920488474825</v>
       </c>
       <c r="H77" t="n">
-        <v>1.846</v>
+        <v>1.8462</v>
       </c>
       <c r="I77" t="n">
-        <v>0.32</v>
+        <v>0.32015</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.0075</v>
+        <v>0.00775</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1362</v>
+        <v>0.13606</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2699</v>
+        <v>0.27011</v>
       </c>
       <c r="O77" t="n">
         <v>1840392.992</v>
@@ -7010,13 +7010,13 @@
         <v>0.45</v>
       </c>
       <c r="G82" t="n">
-        <v>1.06483482381037</v>
+        <v>1.06102900616011</v>
       </c>
       <c r="H82" t="n">
         <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>3.21054</v>
+        <v>3.10766</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7091,7 +7091,7 @@
         <v>0.013</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0166794328138051</v>
+        <v>0.0166806042137624</v>
       </c>
       <c r="H83" t="n">
         <v>0.08400000000000001</v>
@@ -7172,7 +7172,7 @@
         <v>0.013</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0166794328138051</v>
+        <v>0.0166806042137624</v>
       </c>
       <c r="H84" t="n">
         <v>0.08400000000000001</v>
@@ -7253,10 +7253,10 @@
         <v>144</v>
       </c>
       <c r="G85" t="n">
-        <v>352.698751726689</v>
+        <v>379.252407726085</v>
       </c>
       <c r="H85" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I85" t="n">
         <v>1085</v>
@@ -7338,10 +7338,10 @@
         <v>144</v>
       </c>
       <c r="G86" t="n">
-        <v>352.698751726689</v>
+        <v>379.252407726085</v>
       </c>
       <c r="H86" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I86" t="n">
         <v>1085</v>
@@ -7423,10 +7423,10 @@
         <v>144</v>
       </c>
       <c r="G87" t="n">
-        <v>352.698751726689</v>
+        <v>379.252407726085</v>
       </c>
       <c r="H87" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I87" t="n">
         <v>1085</v>
@@ -7508,10 +7508,10 @@
         <v>144</v>
       </c>
       <c r="G88" t="n">
-        <v>352.698751726689</v>
+        <v>379.252407726085</v>
       </c>
       <c r="H88" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I88" t="n">
         <v>1085</v>
@@ -7590,10 +7590,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.00398</v>
+        <v>0.00235</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0068159297222751</v>
+        <v>0.0058010149156169</v>
       </c>
       <c r="H89" t="n">
         <v>0.055699557920691</v>
@@ -7604,7 +7604,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.00341</v>
+        <v>0.00221</v>
       </c>
       <c r="M89" t="n">
         <v>0.009809999999999999</v>
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.00398</v>
+        <v>0.00235</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0068159297222751</v>
+        <v>0.0058010149156169</v>
       </c>
       <c r="H90" t="n">
         <v>0.055699557920691</v>
@@ -7685,7 +7685,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00341</v>
+        <v>0.00221</v>
       </c>
       <c r="M90" t="n">
         <v>0.009809999999999999</v>
@@ -7755,7 +7755,7 @@
         <v>0.0128</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06477139958284291</v>
+        <v>0.064738645525293</v>
       </c>
       <c r="H91" t="n">
         <v>0.459</v>
@@ -7766,7 +7766,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M91" t="n">
         <v>0.1227</v>
@@ -7836,7 +7836,7 @@
         <v>0.0128</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06477139958284291</v>
+        <v>0.064738645525293</v>
       </c>
       <c r="H92" t="n">
         <v>0.459</v>
@@ -7847,7 +7847,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M92" t="n">
         <v>0.1227</v>
@@ -7910,10 +7910,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
       <c r="G93" t="n">
-        <v>0.073439051931599</v>
+        <v>0.0734854159597801</v>
       </c>
       <c r="H93" t="n">
         <v>0.475</v>
@@ -7924,13 +7924,13 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00822</v>
+        <v>0.0086</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1362</v>
+        <v>0.13606</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2699</v>
+        <v>0.27011</v>
       </c>
       <c r="O93" t="n">
         <v>1840392.992</v>
@@ -7987,10 +7987,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
       <c r="G94" t="n">
-        <v>0.073439051931599</v>
+        <v>0.0734854159597801</v>
       </c>
       <c r="H94" t="n">
         <v>0.475</v>
@@ -8001,13 +8001,13 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00822</v>
+        <v>0.0086</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1362</v>
+        <v>0.13606</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2699</v>
+        <v>0.27011</v>
       </c>
       <c r="O94" t="n">
         <v>1840392.992</v>
@@ -8460,7 +8460,7 @@
         <v>0.013</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0160960994804718</v>
+        <v>0.016097270880429</v>
       </c>
       <c r="H100" t="n">
         <v>0.08400000000000001</v>
@@ -8541,7 +8541,7 @@
         <v>0.013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0160960994804718</v>
+        <v>0.016097270880429</v>
       </c>
       <c r="H101" t="n">
         <v>0.08400000000000001</v>
@@ -8622,10 +8622,10 @@
         <v>120</v>
       </c>
       <c r="G102" t="n">
-        <v>419.06234221872</v>
+        <v>442.759223457498</v>
       </c>
       <c r="H102" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I102" t="n">
         <v>2050</v>
@@ -8707,10 +8707,10 @@
         <v>120</v>
       </c>
       <c r="G103" t="n">
-        <v>419.06234221872</v>
+        <v>442.759223457498</v>
       </c>
       <c r="H103" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I103" t="n">
         <v>2050</v>
@@ -8792,10 +8792,10 @@
         <v>120</v>
       </c>
       <c r="G104" t="n">
-        <v>419.06234221872</v>
+        <v>442.759223457498</v>
       </c>
       <c r="H104" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I104" t="n">
         <v>2050</v>
@@ -8877,10 +8877,10 @@
         <v>120</v>
       </c>
       <c r="G105" t="n">
-        <v>419.06234221872</v>
+        <v>442.759223457498</v>
       </c>
       <c r="H105" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I105" t="n">
         <v>2050</v>
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.00553</v>
+        <v>0.00442</v>
       </c>
       <c r="G106" t="n">
-        <v>0.007820070194418299</v>
+        <v>0.0069280002757596</v>
       </c>
       <c r="H106" t="n">
         <v>0.055699557920691</v>
@@ -8973,7 +8973,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00401</v>
+        <v>0.0032</v>
       </c>
       <c r="M106" t="n">
         <v>0.00992</v>
@@ -9040,10 +9040,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00553</v>
+        <v>0.00442</v>
       </c>
       <c r="G107" t="n">
-        <v>0.007820070194418299</v>
+        <v>0.0069280002757596</v>
       </c>
       <c r="H107" t="n">
         <v>0.055699557920691</v>
@@ -9054,7 +9054,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00401</v>
+        <v>0.0032</v>
       </c>
       <c r="M107" t="n">
         <v>0.00992</v>
@@ -9124,7 +9124,7 @@
         <v>0.021</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0779586179941363</v>
+        <v>0.0779950401367783</v>
       </c>
       <c r="H108" t="n">
         <v>0.459</v>
@@ -9205,7 +9205,7 @@
         <v>0.021</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0779586179941363</v>
+        <v>0.0779950401367783</v>
       </c>
       <c r="H109" t="n">
         <v>0.459</v>
@@ -9282,7 +9282,7 @@
         <v>0.04</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0881443823703128</v>
+        <v>0.08826552649052</v>
       </c>
       <c r="H110" t="n">
         <v>0.475</v>
@@ -9293,7 +9293,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00928</v>
+        <v>0.0097</v>
       </c>
       <c r="M110" t="n">
         <v>0.18</v>
@@ -9359,7 +9359,7 @@
         <v>0.04</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0881443823703128</v>
+        <v>0.08826552649052</v>
       </c>
       <c r="H111" t="n">
         <v>0.475</v>
@@ -9370,7 +9370,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00928</v>
+        <v>0.0097</v>
       </c>
       <c r="M111" t="n">
         <v>0.18</v>
@@ -9829,7 +9829,7 @@
         <v>0.012</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0150638299801408</v>
+        <v>0.0150650212343346</v>
       </c>
       <c r="H117" t="n">
         <v>0.08400000000000001</v>
@@ -9910,7 +9910,7 @@
         <v>0.012</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0150638299801408</v>
+        <v>0.0150650212343346</v>
       </c>
       <c r="H118" t="n">
         <v>0.08400000000000001</v>
@@ -9991,10 +9991,10 @@
         <v>120</v>
       </c>
       <c r="G119" t="n">
-        <v>429.277970556127</v>
+        <v>453.379258635816</v>
       </c>
       <c r="H119" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I119" t="n">
         <v>2115</v>
@@ -10076,10 +10076,10 @@
         <v>120</v>
       </c>
       <c r="G120" t="n">
-        <v>429.277970556127</v>
+        <v>453.379258635816</v>
       </c>
       <c r="H120" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I120" t="n">
         <v>2115</v>
@@ -10161,10 +10161,10 @@
         <v>120</v>
       </c>
       <c r="G121" t="n">
-        <v>429.277970556127</v>
+        <v>453.379258635816</v>
       </c>
       <c r="H121" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I121" t="n">
         <v>2115</v>
@@ -10246,10 +10246,10 @@
         <v>120</v>
       </c>
       <c r="G122" t="n">
-        <v>429.277970556127</v>
+        <v>453.379258635816</v>
       </c>
       <c r="H122" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I122" t="n">
         <v>2115</v>
@@ -10328,10 +10328,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00615</v>
+        <v>0.00478</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0080567210356501</v>
+        <v>0.0072421030815956</v>
       </c>
       <c r="H123" t="n">
         <v>0.0374576441552636</v>
@@ -10342,10 +10342,10 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00575</v>
+        <v>0.00502</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01238</v>
+        <v>0.01155</v>
       </c>
       <c r="N123" t="n">
         <v>0.02064</v>
@@ -10409,10 +10409,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00615</v>
+        <v>0.00478</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0080567210356501</v>
+        <v>0.0072421030815956</v>
       </c>
       <c r="H124" t="n">
         <v>0.0374576441552636</v>
@@ -10423,10 +10423,10 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00575</v>
+        <v>0.00502</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01238</v>
+        <v>0.01155</v>
       </c>
       <c r="N124" t="n">
         <v>0.02064</v>
@@ -10493,7 +10493,7 @@
         <v>0.033</v>
       </c>
       <c r="G125" t="n">
-        <v>0.08303255991454971</v>
+        <v>0.0830933310009886</v>
       </c>
       <c r="H125" t="n">
         <v>0.459</v>
@@ -10574,7 +10574,7 @@
         <v>0.033</v>
       </c>
       <c r="G126" t="n">
-        <v>0.08303255991454971</v>
+        <v>0.0830933310009886</v>
       </c>
       <c r="H126" t="n">
         <v>0.459</v>
@@ -10651,7 +10651,7 @@
         <v>0.045</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0933224244540518</v>
+        <v>0.0934148454205011</v>
       </c>
       <c r="H127" t="n">
         <v>0.475</v>
@@ -10728,7 +10728,7 @@
         <v>0.045</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0933224244540518</v>
+        <v>0.0934148454205011</v>
       </c>
       <c r="H128" t="n">
         <v>0.475</v>
@@ -11360,10 +11360,10 @@
         <v>130</v>
       </c>
       <c r="G136" t="n">
-        <v>418.023733267991</v>
+        <v>442.125021347681</v>
       </c>
       <c r="H136" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I136" t="n">
         <v>2115</v>
@@ -11445,10 +11445,10 @@
         <v>130</v>
       </c>
       <c r="G137" t="n">
-        <v>418.023733267991</v>
+        <v>442.125021347681</v>
       </c>
       <c r="H137" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I137" t="n">
         <v>2115</v>
@@ -11530,10 +11530,10 @@
         <v>130</v>
       </c>
       <c r="G138" t="n">
-        <v>418.023733267991</v>
+        <v>442.125021347681</v>
       </c>
       <c r="H138" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I138" t="n">
         <v>2115</v>
@@ -11615,10 +11615,10 @@
         <v>130</v>
       </c>
       <c r="G139" t="n">
-        <v>418.023733267991</v>
+        <v>442.125021347681</v>
       </c>
       <c r="H139" t="n">
-        <v>5307.5848332896</v>
+        <v>6900.96731562833</v>
       </c>
       <c r="I139" t="n">
         <v>2115</v>
@@ -11697,10 +11697,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00643</v>
+        <v>0.00516</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0085594465362219</v>
+        <v>0.007929794738940701</v>
       </c>
       <c r="H140" t="n">
         <v>0.0374576441552636</v>
@@ -11711,10 +11711,10 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00769</v>
+        <v>0.00655</v>
       </c>
       <c r="M140" t="n">
-        <v>0.01417</v>
+        <v>0.01256</v>
       </c>
       <c r="N140" t="n">
         <v>0.02211</v>
@@ -11778,10 +11778,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00643</v>
+        <v>0.00516</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0085594465362219</v>
+        <v>0.007929794738940701</v>
       </c>
       <c r="H141" t="n">
         <v>0.0374576441552636</v>
@@ -11792,10 +11792,10 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00769</v>
+        <v>0.00655</v>
       </c>
       <c r="M141" t="n">
-        <v>0.01417</v>
+        <v>0.01256</v>
       </c>
       <c r="N141" t="n">
         <v>0.02211</v>
@@ -11862,7 +11862,7 @@
         <v>0.038</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07799520712338109</v>
+        <v>0.0781237678489851</v>
       </c>
       <c r="H142" t="n">
         <v>0.459</v>
@@ -11873,7 +11873,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00182</v>
+        <v>0.00206</v>
       </c>
       <c r="M142" t="n">
         <v>0.16875</v>
@@ -11943,7 +11943,7 @@
         <v>0.038</v>
       </c>
       <c r="G143" t="n">
-        <v>0.07799520712338109</v>
+        <v>0.0781237678489851</v>
       </c>
       <c r="H143" t="n">
         <v>0.459</v>
@@ -11954,7 +11954,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00182</v>
+        <v>0.00206</v>
       </c>
       <c r="M143" t="n">
         <v>0.16875</v>
@@ -12020,7 +12020,7 @@
         <v>0.045</v>
       </c>
       <c r="G144" t="n">
-        <v>0.08806027154005409</v>
+        <v>0.0881436069924038</v>
       </c>
       <c r="H144" t="n">
         <v>0.475</v>
@@ -12097,7 +12097,7 @@
         <v>0.045</v>
       </c>
       <c r="G145" t="n">
-        <v>0.08806027154005409</v>
+        <v>0.0881436069924038</v>
       </c>
       <c r="H145" t="n">
         <v>0.475</v>
@@ -12648,10 +12648,10 @@
         <v>120</v>
       </c>
       <c r="G152" t="n">
-        <v>287.083024646929</v>
+        <v>284.127740411807</v>
       </c>
       <c r="H152" t="n">
-        <v>5061.73963675908</v>
+        <v>4890.5898426731</v>
       </c>
       <c r="I152" t="n">
         <v>1104</v>
@@ -12733,10 +12733,10 @@
         <v>120</v>
       </c>
       <c r="G153" t="n">
-        <v>287.083024646929</v>
+        <v>284.127740411807</v>
       </c>
       <c r="H153" t="n">
-        <v>5061.73963675908</v>
+        <v>4890.5898426731</v>
       </c>
       <c r="I153" t="n">
         <v>1104</v>
@@ -12818,10 +12818,10 @@
         <v>120</v>
       </c>
       <c r="G154" t="n">
-        <v>287.083024646929</v>
+        <v>284.127740411807</v>
       </c>
       <c r="H154" t="n">
-        <v>5061.73963675908</v>
+        <v>4890.5898426731</v>
       </c>
       <c r="I154" t="n">
         <v>1104</v>
@@ -12903,10 +12903,10 @@
         <v>120</v>
       </c>
       <c r="G155" t="n">
-        <v>287.083024646929</v>
+        <v>284.127740411807</v>
       </c>
       <c r="H155" t="n">
-        <v>5061.73963675908</v>
+        <v>4890.5898426731</v>
       </c>
       <c r="I155" t="n">
         <v>1104</v>
@@ -12985,10 +12985,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.00643</v>
+        <v>0.00516</v>
       </c>
       <c r="G156" t="n">
-        <v>0.008423667282602401</v>
+        <v>0.007915807130504601</v>
       </c>
       <c r="H156" t="n">
         <v>0.0374576441552636</v>
@@ -12999,10 +12999,10 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.00731</v>
       </c>
       <c r="M156" t="n">
-        <v>0.01417</v>
+        <v>0.012</v>
       </c>
       <c r="N156" t="n">
         <v>0.02166</v>
@@ -13066,10 +13066,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.00643</v>
+        <v>0.00516</v>
       </c>
       <c r="G157" t="n">
-        <v>0.008423667282602401</v>
+        <v>0.007915807130504601</v>
       </c>
       <c r="H157" t="n">
         <v>0.0374576441552636</v>
@@ -13080,10 +13080,10 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.00731</v>
       </c>
       <c r="M157" t="n">
-        <v>0.01417</v>
+        <v>0.012</v>
       </c>
       <c r="N157" t="n">
         <v>0.02166</v>
@@ -13150,7 +13150,7 @@
         <v>0.018</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06950118684545351</v>
+        <v>0.0696798226146125</v>
       </c>
       <c r="H158" t="n">
         <v>0.339</v>
@@ -13161,7 +13161,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.002</v>
+        <v>0.00229</v>
       </c>
       <c r="M158" t="n">
         <v>0.173</v>
@@ -13231,7 +13231,7 @@
         <v>0.018</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06950118684545351</v>
+        <v>0.0696798226146125</v>
       </c>
       <c r="H159" t="n">
         <v>0.339</v>
@@ -13242,7 +13242,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.002</v>
+        <v>0.00229</v>
       </c>
       <c r="M159" t="n">
         <v>0.173</v>
@@ -13308,7 +13308,7 @@
         <v>0.033</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0791923138053105</v>
+        <v>0.0792656665272802</v>
       </c>
       <c r="H160" t="n">
         <v>0.35</v>
@@ -13385,7 +13385,7 @@
         <v>0.033</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0791923138053105</v>
+        <v>0.0792656665272802</v>
       </c>
       <c r="H161" t="n">
         <v>0.35</v>
@@ -13744,6 +13744,1294 @@
         </is>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.011448275862069</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.02072</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.011448275862069</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.02072</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>110</v>
+      </c>
+      <c r="G168" t="n">
+        <v>297.351878342842</v>
+      </c>
+      <c r="H168" t="n">
+        <v>4890.5898426731</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1105.2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K168" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L168" t="n">
+        <v>92</v>
+      </c>
+      <c r="M168" t="n">
+        <v>272.08</v>
+      </c>
+      <c r="N168" t="n">
+        <v>467.2</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>110</v>
+      </c>
+      <c r="G169" t="n">
+        <v>297.351878342842</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4890.5898426731</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1105.2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K169" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L169" t="n">
+        <v>92</v>
+      </c>
+      <c r="M169" t="n">
+        <v>272.08</v>
+      </c>
+      <c r="N169" t="n">
+        <v>467.2</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>110</v>
+      </c>
+      <c r="G170" t="n">
+        <v>297.351878342842</v>
+      </c>
+      <c r="H170" t="n">
+        <v>4890.5898426731</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1105.2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K170" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L170" t="n">
+        <v>92</v>
+      </c>
+      <c r="M170" t="n">
+        <v>272.08</v>
+      </c>
+      <c r="N170" t="n">
+        <v>467.2</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>110</v>
+      </c>
+      <c r="G171" t="n">
+        <v>297.351878342842</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4890.5898426731</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1105.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K171" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L171" t="n">
+        <v>92</v>
+      </c>
+      <c r="M171" t="n">
+        <v>272.08</v>
+      </c>
+      <c r="N171" t="n">
+        <v>467.2</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00541</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.007822038207359499</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0374576441552636</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.02533</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>0.00529</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.02103</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.00541</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.007822038207359499</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.0374576441552636</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.02533</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0.00529</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.02103</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0760972844516967</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.3034</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.00229</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.2116</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.2913</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0760972844516967</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.3034</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0.00229</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.2116</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.2913</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0858070108938688</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.22048</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.30858</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0858070108938688</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.22048</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.30858</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.322586206896552</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.322586206896552</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0346379310344828</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.07539999999999999</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.04364</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0346379310344828</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.07539999999999999</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.04364</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/state_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -4272,13 +4272,13 @@
         <v>1.6</v>
       </c>
       <c r="G48" t="n">
-        <v>1.58568715557428</v>
+        <v>1.59646848762532</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.17827</v>
+        <v>3.40634</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4289,7 +4289,7 @@
         <v>2.1776</v>
       </c>
       <c r="N48" t="n">
-        <v>3.02726</v>
+        <v>3.112</v>
       </c>
       <c r="O48" t="n">
         <v>1840392.992</v>
@@ -5641,13 +5641,13 @@
         <v>1.536</v>
       </c>
       <c r="G65" t="n">
-        <v>1.3585414064339</v>
+        <v>1.36668730176135</v>
       </c>
       <c r="H65" t="n">
         <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>3.11852</v>
+        <v>3.26448</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5884,10 +5884,10 @@
         <v>124</v>
       </c>
       <c r="G68" t="n">
-        <v>346.952407726085</v>
+        <v>317.4473852589</v>
       </c>
       <c r="H68" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I68" t="n">
         <v>730</v>
@@ -5969,10 +5969,10 @@
         <v>124</v>
       </c>
       <c r="G69" t="n">
-        <v>346.952407726085</v>
+        <v>317.4473852589</v>
       </c>
       <c r="H69" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I69" t="n">
         <v>730</v>
@@ -6054,10 +6054,10 @@
         <v>124</v>
       </c>
       <c r="G70" t="n">
-        <v>346.952407726085</v>
+        <v>317.4473852589</v>
       </c>
       <c r="H70" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I70" t="n">
         <v>730</v>
@@ -6139,10 +6139,10 @@
         <v>124</v>
       </c>
       <c r="G71" t="n">
-        <v>346.952407726085</v>
+        <v>317.4473852589</v>
       </c>
       <c r="H71" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I71" t="n">
         <v>730</v>
@@ -7010,13 +7010,13 @@
         <v>0.45</v>
       </c>
       <c r="G82" t="n">
-        <v>1.06102900616011</v>
+        <v>1.06882826764385</v>
       </c>
       <c r="H82" t="n">
         <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>3.10766</v>
+        <v>3.23869</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7253,10 +7253,10 @@
         <v>144</v>
       </c>
       <c r="G85" t="n">
-        <v>379.252407726085</v>
+        <v>349.7473852589</v>
       </c>
       <c r="H85" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I85" t="n">
         <v>1085</v>
@@ -7338,10 +7338,10 @@
         <v>144</v>
       </c>
       <c r="G86" t="n">
-        <v>379.252407726085</v>
+        <v>349.7473852589</v>
       </c>
       <c r="H86" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I86" t="n">
         <v>1085</v>
@@ -7423,10 +7423,10 @@
         <v>144</v>
       </c>
       <c r="G87" t="n">
-        <v>379.252407726085</v>
+        <v>349.7473852589</v>
       </c>
       <c r="H87" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I87" t="n">
         <v>1085</v>
@@ -7508,10 +7508,10 @@
         <v>144</v>
       </c>
       <c r="G88" t="n">
-        <v>379.252407726085</v>
+        <v>349.7473852589</v>
       </c>
       <c r="H88" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I88" t="n">
         <v>1085</v>
@@ -8622,10 +8622,10 @@
         <v>120</v>
       </c>
       <c r="G102" t="n">
-        <v>442.759223457498</v>
+        <v>415.844633827582</v>
       </c>
       <c r="H102" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I102" t="n">
         <v>2050</v>
@@ -8707,10 +8707,10 @@
         <v>120</v>
       </c>
       <c r="G103" t="n">
-        <v>442.759223457498</v>
+        <v>415.844633827582</v>
       </c>
       <c r="H103" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I103" t="n">
         <v>2050</v>
@@ -8792,10 +8792,10 @@
         <v>120</v>
       </c>
       <c r="G104" t="n">
-        <v>442.759223457498</v>
+        <v>415.844633827582</v>
       </c>
       <c r="H104" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I104" t="n">
         <v>2050</v>
@@ -8877,10 +8877,10 @@
         <v>120</v>
       </c>
       <c r="G105" t="n">
-        <v>442.759223457498</v>
+        <v>415.844633827582</v>
       </c>
       <c r="H105" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I105" t="n">
         <v>2050</v>
@@ -9991,10 +9991,10 @@
         <v>120</v>
       </c>
       <c r="G119" t="n">
-        <v>453.379258635816</v>
+        <v>426.008489520647</v>
       </c>
       <c r="H119" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I119" t="n">
         <v>2115</v>
@@ -10076,10 +10076,10 @@
         <v>120</v>
       </c>
       <c r="G120" t="n">
-        <v>453.379258635816</v>
+        <v>426.008489520647</v>
       </c>
       <c r="H120" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I120" t="n">
         <v>2115</v>
@@ -10161,10 +10161,10 @@
         <v>120</v>
       </c>
       <c r="G121" t="n">
-        <v>453.379258635816</v>
+        <v>426.008489520647</v>
       </c>
       <c r="H121" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I121" t="n">
         <v>2115</v>
@@ -10246,10 +10246,10 @@
         <v>120</v>
       </c>
       <c r="G122" t="n">
-        <v>453.379258635816</v>
+        <v>426.008489520647</v>
       </c>
       <c r="H122" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I122" t="n">
         <v>2115</v>
@@ -11360,10 +11360,10 @@
         <v>130</v>
       </c>
       <c r="G136" t="n">
-        <v>442.125021347681</v>
+        <v>414.754252232512</v>
       </c>
       <c r="H136" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I136" t="n">
         <v>2115</v>
@@ -11445,10 +11445,10 @@
         <v>130</v>
       </c>
       <c r="G137" t="n">
-        <v>442.125021347681</v>
+        <v>414.754252232512</v>
       </c>
       <c r="H137" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I137" t="n">
         <v>2115</v>
@@ -11530,10 +11530,10 @@
         <v>130</v>
       </c>
       <c r="G138" t="n">
-        <v>442.125021347681</v>
+        <v>414.754252232512</v>
       </c>
       <c r="H138" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I138" t="n">
         <v>2115</v>
@@ -11615,10 +11615,10 @@
         <v>130</v>
       </c>
       <c r="G139" t="n">
-        <v>442.125021347681</v>
+        <v>414.754252232512</v>
       </c>
       <c r="H139" t="n">
-        <v>6900.96731562833</v>
+        <v>5130.66596759725</v>
       </c>
       <c r="I139" t="n">
         <v>2115</v>
@@ -12648,10 +12648,10 @@
         <v>120</v>
       </c>
       <c r="G152" t="n">
-        <v>284.127740411807</v>
+        <v>286.807498519326</v>
       </c>
       <c r="H152" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I152" t="n">
         <v>1104</v>
@@ -12733,10 +12733,10 @@
         <v>120</v>
       </c>
       <c r="G153" t="n">
-        <v>284.127740411807</v>
+        <v>286.807498519326</v>
       </c>
       <c r="H153" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I153" t="n">
         <v>1104</v>
@@ -12818,10 +12818,10 @@
         <v>120</v>
       </c>
       <c r="G154" t="n">
-        <v>284.127740411807</v>
+        <v>286.807498519326</v>
       </c>
       <c r="H154" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I154" t="n">
         <v>1104</v>
@@ -12903,10 +12903,10 @@
         <v>120</v>
       </c>
       <c r="G155" t="n">
-        <v>284.127740411807</v>
+        <v>286.807498519326</v>
       </c>
       <c r="H155" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I155" t="n">
         <v>1104</v>
@@ -13936,10 +13936,10 @@
         <v>110</v>
       </c>
       <c r="G168" t="n">
-        <v>297.351878342842</v>
+        <v>300.031636450361</v>
       </c>
       <c r="H168" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I168" t="n">
         <v>1105.2</v>
@@ -14021,10 +14021,10 @@
         <v>110</v>
       </c>
       <c r="G169" t="n">
-        <v>297.351878342842</v>
+        <v>300.031636450361</v>
       </c>
       <c r="H169" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I169" t="n">
         <v>1105.2</v>
@@ -14106,10 +14106,10 @@
         <v>110</v>
       </c>
       <c r="G170" t="n">
-        <v>297.351878342842</v>
+        <v>300.031636450361</v>
       </c>
       <c r="H170" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I170" t="n">
         <v>1105.2</v>
@@ -14191,10 +14191,10 @@
         <v>110</v>
       </c>
       <c r="G171" t="n">
-        <v>297.351878342842</v>
+        <v>300.031636450361</v>
       </c>
       <c r="H171" t="n">
-        <v>4890.5898426731</v>
+        <v>5046.01581290921</v>
       </c>
       <c r="I171" t="n">
         <v>1105.2</v>

--- a/state_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/state_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,13 +663,13 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0.008</v>
       </c>
       <c r="G2">
-        <v>0.0114997777344714</v>
+        <v>0.0115092318057524</v>
       </c>
       <c r="H2">
         <v>0.11</v>
@@ -690,19 +693,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -719,13 +722,13 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0.008</v>
       </c>
       <c r="G3">
-        <v>0.0114997777344714</v>
+        <v>0.0115092318057524</v>
       </c>
       <c r="H3">
         <v>0.11</v>
@@ -749,19 +752,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,13 +781,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>146</v>
       </c>
       <c r="G4">
-        <v>710.365384615385</v>
+        <v>710.359615384615</v>
       </c>
       <c r="H4">
         <v>7701</v>
@@ -799,7 +802,7 @@
         <v>40.3846153846154</v>
       </c>
       <c r="L4">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M4">
         <v>1070.08</v>
@@ -814,19 +817,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -843,13 +846,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>146</v>
       </c>
       <c r="G5">
-        <v>710.365384615385</v>
+        <v>710.359615384615</v>
       </c>
       <c r="H5">
         <v>7701</v>
@@ -864,7 +867,7 @@
         <v>40.3846153846154</v>
       </c>
       <c r="L5">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M5">
         <v>1070.08</v>
@@ -879,19 +882,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -908,13 +911,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>146</v>
       </c>
       <c r="G6">
-        <v>710.365384615385</v>
+        <v>710.359615384615</v>
       </c>
       <c r="H6">
         <v>7701</v>
@@ -929,7 +932,7 @@
         <v>40.3846153846154</v>
       </c>
       <c r="L6">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M6">
         <v>1070.08</v>
@@ -944,19 +947,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -973,13 +976,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>146</v>
       </c>
       <c r="G7">
-        <v>710.365384615385</v>
+        <v>710.359615384615</v>
       </c>
       <c r="H7">
         <v>7701</v>
@@ -994,7 +997,7 @@
         <v>40.3846153846154</v>
       </c>
       <c r="L7">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M7">
         <v>1070.08</v>
@@ -1009,19 +1012,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1038,13 +1041,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>0.032</v>
       </c>
       <c r="G8">
-        <v>0.09905651776282121</v>
+        <v>0.0990549552049505</v>
       </c>
       <c r="H8">
         <v>1.2591</v>
@@ -1053,7 +1056,7 @@
         <v>0.3278</v>
       </c>
       <c r="L8">
-        <v>0.00281</v>
+        <v>0.00524</v>
       </c>
       <c r="M8">
         <v>0.14</v>
@@ -1068,19 +1071,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1097,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0.032</v>
       </c>
       <c r="G9">
-        <v>0.09905651776282121</v>
+        <v>0.0990549552049505</v>
       </c>
       <c r="H9">
         <v>1.2591</v>
@@ -1112,7 +1115,7 @@
         <v>0.3278</v>
       </c>
       <c r="L9">
-        <v>0.00281</v>
+        <v>0.00524</v>
       </c>
       <c r="M9">
         <v>0.14</v>
@@ -1127,19 +1130,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0.0505</v>
@@ -1168,7 +1171,7 @@
         <v>0.3468</v>
       </c>
       <c r="L10">
-        <v>0.0155</v>
+        <v>0.017</v>
       </c>
       <c r="M10">
         <v>0.19752</v>
@@ -1183,19 +1186,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1209,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.0505</v>
@@ -1224,7 +1227,7 @@
         <v>0.3468</v>
       </c>
       <c r="L11">
-        <v>0.0155</v>
+        <v>0.017</v>
       </c>
       <c r="M11">
         <v>0.19752</v>
@@ -1239,19 +1242,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1265,7 +1268,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0.245</v>
@@ -1280,7 +1283,7 @@
         <v>1.49</v>
       </c>
       <c r="L12">
-        <v>0.245</v>
+        <v>0.198</v>
       </c>
       <c r="M12">
         <v>0.6364</v>
@@ -1295,19 +1298,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1321,7 +1324,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0.245</v>
@@ -1336,7 +1339,7 @@
         <v>1.49</v>
       </c>
       <c r="L13">
-        <v>0.245</v>
+        <v>0.198</v>
       </c>
       <c r="M13">
         <v>0.6364</v>
@@ -1351,19 +1354,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1377,13 +1380,13 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0.0225</v>
       </c>
       <c r="G14">
-        <v>0.0581031724743774</v>
+        <v>0.0581026593755296</v>
       </c>
       <c r="H14">
         <v>0.791</v>
@@ -1392,7 +1395,7 @@
         <v>0.2361</v>
       </c>
       <c r="L14">
-        <v>0.0205</v>
+        <v>0.021</v>
       </c>
       <c r="M14">
         <v>0.05162</v>
@@ -1407,19 +1410,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1433,13 +1436,13 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>0.0225</v>
       </c>
       <c r="G15">
-        <v>0.0581031724743774</v>
+        <v>0.0581026593755296</v>
       </c>
       <c r="H15">
         <v>0.791</v>
@@ -1448,7 +1451,7 @@
         <v>0.2361</v>
       </c>
       <c r="L15">
-        <v>0.0205</v>
+        <v>0.021</v>
       </c>
       <c r="M15">
         <v>0.05162</v>
@@ -1463,19 +1466,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1492,13 +1495,13 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>0.01</v>
       </c>
       <c r="G16">
-        <v>0.0127194952044387</v>
+        <v>0.0127265228790413</v>
       </c>
       <c r="H16">
         <v>0.11</v>
@@ -1507,7 +1510,7 @@
         <v>0.0293</v>
       </c>
       <c r="L16">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="M16">
         <v>0.015</v>
@@ -1522,19 +1525,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,13 +1554,13 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>0.0127194952044387</v>
+        <v>0.0127265228790413</v>
       </c>
       <c r="H17">
         <v>0.11</v>
@@ -1566,7 +1569,7 @@
         <v>0.0293</v>
       </c>
       <c r="L17">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="M17">
         <v>0.015</v>
@@ -1581,19 +1584,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1610,13 +1613,13 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>134</v>
       </c>
       <c r="G18">
-        <v>564.050847457627</v>
+        <v>564.0542372881361</v>
       </c>
       <c r="H18">
         <v>7701</v>
@@ -1631,13 +1634,13 @@
         <v>35.5932203389831</v>
       </c>
       <c r="L18">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="M18">
-        <v>870.8200000000001</v>
+        <v>870.7670000000001</v>
       </c>
       <c r="N18">
-        <v>1923.08</v>
+        <v>1923.392</v>
       </c>
       <c r="O18">
         <v>1840392.992</v>
@@ -1646,19 +1649,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1675,13 +1678,13 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>134</v>
       </c>
       <c r="G19">
-        <v>564.050847457627</v>
+        <v>564.0542372881361</v>
       </c>
       <c r="H19">
         <v>7701</v>
@@ -1696,13 +1699,13 @@
         <v>35.5932203389831</v>
       </c>
       <c r="L19">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="M19">
-        <v>870.8200000000001</v>
+        <v>870.7670000000001</v>
       </c>
       <c r="N19">
-        <v>1923.08</v>
+        <v>1923.392</v>
       </c>
       <c r="O19">
         <v>1840392.992</v>
@@ -1711,19 +1714,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1740,13 +1743,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>134</v>
       </c>
       <c r="G20">
-        <v>564.050847457627</v>
+        <v>564.0542372881361</v>
       </c>
       <c r="H20">
         <v>7701</v>
@@ -1761,13 +1764,13 @@
         <v>35.5932203389831</v>
       </c>
       <c r="L20">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="M20">
-        <v>870.8200000000001</v>
+        <v>870.7670000000001</v>
       </c>
       <c r="N20">
-        <v>1923.08</v>
+        <v>1923.392</v>
       </c>
       <c r="O20">
         <v>1840392.992</v>
@@ -1776,19 +1779,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1805,13 +1808,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>134</v>
       </c>
       <c r="G21">
-        <v>564.050847457627</v>
+        <v>564.0542372881361</v>
       </c>
       <c r="H21">
         <v>7701</v>
@@ -1826,13 +1829,13 @@
         <v>35.5932203389831</v>
       </c>
       <c r="L21">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="M21">
-        <v>870.8200000000001</v>
+        <v>870.7670000000001</v>
       </c>
       <c r="N21">
-        <v>1923.08</v>
+        <v>1923.392</v>
       </c>
       <c r="O21">
         <v>1840392.992</v>
@@ -1841,19 +1844,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1870,13 +1873,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
-        <v>0.00256</v>
+        <v>0.00265</v>
       </c>
       <c r="G22">
-        <v>0.0053113539728179</v>
+        <v>0.0053204955650125</v>
       </c>
       <c r="H22">
         <v>0.0264272792576312</v>
@@ -1885,7 +1888,7 @@
         <v>0.02285</v>
       </c>
       <c r="L22">
-        <v>0.00214</v>
+        <v>0.0026</v>
       </c>
       <c r="M22">
         <v>0.008189999999999999</v>
@@ -1900,19 +1903,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1929,13 +1932,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
-        <v>0.00256</v>
+        <v>0.00265</v>
       </c>
       <c r="G23">
-        <v>0.0053113539728179</v>
+        <v>0.0053204955650125</v>
       </c>
       <c r="H23">
         <v>0.0264272792576312</v>
@@ -1944,7 +1947,7 @@
         <v>0.02285</v>
       </c>
       <c r="L23">
-        <v>0.00214</v>
+        <v>0.0026</v>
       </c>
       <c r="M23">
         <v>0.008189999999999999</v>
@@ -1959,19 +1962,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1988,13 +1991,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>0.012</v>
       </c>
       <c r="G24">
-        <v>0.0847418537352244</v>
+        <v>0.0847405560176708</v>
       </c>
       <c r="H24">
         <v>1.2591</v>
@@ -2003,7 +2006,7 @@
         <v>0.3091</v>
       </c>
       <c r="L24">
-        <v>0.00124</v>
+        <v>0.0028</v>
       </c>
       <c r="M24">
         <v>0.13329</v>
@@ -2018,19 +2021,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2047,13 +2050,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>0.012</v>
       </c>
       <c r="G25">
-        <v>0.0847418537352244</v>
+        <v>0.0847405560176708</v>
       </c>
       <c r="H25">
         <v>1.2591</v>
@@ -2062,7 +2065,7 @@
         <v>0.3091</v>
       </c>
       <c r="L25">
-        <v>0.00124</v>
+        <v>0.0028</v>
       </c>
       <c r="M25">
         <v>0.13329</v>
@@ -2077,19 +2080,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2103,7 +2106,7 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0.028</v>
@@ -2118,7 +2121,7 @@
         <v>0.3426</v>
       </c>
       <c r="L26">
-        <v>0.0139</v>
+        <v>0.01555</v>
       </c>
       <c r="M26">
         <v>0.16922</v>
@@ -2133,19 +2136,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2159,7 +2162,7 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0.028</v>
@@ -2174,7 +2177,7 @@
         <v>0.3426</v>
       </c>
       <c r="L27">
-        <v>0.0139</v>
+        <v>0.01555</v>
       </c>
       <c r="M27">
         <v>0.16922</v>
@@ -2189,19 +2192,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2215,7 +2218,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0.219</v>
@@ -2230,7 +2233,7 @@
         <v>1.455</v>
       </c>
       <c r="L28">
-        <v>0.21</v>
+        <v>0.197</v>
       </c>
       <c r="M28">
         <v>0.61</v>
@@ -2245,19 +2248,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2271,7 +2274,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0.219</v>
@@ -2286,7 +2289,7 @@
         <v>1.455</v>
       </c>
       <c r="L29">
-        <v>0.21</v>
+        <v>0.197</v>
       </c>
       <c r="M29">
         <v>0.61</v>
@@ -2301,19 +2304,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2327,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0.021</v>
@@ -2342,7 +2345,7 @@
         <v>0.23295</v>
       </c>
       <c r="L30">
-        <v>0.0225</v>
+        <v>0.0215</v>
       </c>
       <c r="M30">
         <v>0.05241</v>
@@ -2357,19 +2360,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2383,7 +2386,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>0.021</v>
@@ -2398,7 +2401,7 @@
         <v>0.23295</v>
       </c>
       <c r="L31">
-        <v>0.0225</v>
+        <v>0.0215</v>
       </c>
       <c r="M31">
         <v>0.05241</v>
@@ -2413,19 +2416,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2442,13 +2445,13 @@
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>0.0105</v>
       </c>
       <c r="G32">
-        <v>0.0133328115716569</v>
+        <v>0.0133356848163513</v>
       </c>
       <c r="H32">
         <v>0.11</v>
@@ -2457,7 +2460,7 @@
         <v>0.0245</v>
       </c>
       <c r="L32">
-        <v>0.0135</v>
+        <v>0.012</v>
       </c>
       <c r="M32">
         <v>0.017</v>
@@ -2472,19 +2475,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2501,13 +2504,13 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>0.0105</v>
       </c>
       <c r="G33">
-        <v>0.0133328115716569</v>
+        <v>0.0133356848163513</v>
       </c>
       <c r="H33">
         <v>0.11</v>
@@ -2516,7 +2519,7 @@
         <v>0.0245</v>
       </c>
       <c r="L33">
-        <v>0.0135</v>
+        <v>0.012</v>
       </c>
       <c r="M33">
         <v>0.017</v>
@@ -2531,19 +2534,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2560,13 +2563,13 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>127</v>
       </c>
       <c r="G34">
-        <v>378.602952465612</v>
+        <v>378.607580233691</v>
       </c>
       <c r="H34">
         <v>2880</v>
@@ -2581,7 +2584,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L34">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M34">
         <v>550</v>
@@ -2596,19 +2599,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2625,13 +2628,13 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>127</v>
       </c>
       <c r="G35">
-        <v>378.602952465612</v>
+        <v>378.607580233691</v>
       </c>
       <c r="H35">
         <v>2880</v>
@@ -2646,7 +2649,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L35">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M35">
         <v>550</v>
@@ -2661,19 +2664,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2690,13 +2693,13 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>127</v>
       </c>
       <c r="G36">
-        <v>378.602952465612</v>
+        <v>378.607580233691</v>
       </c>
       <c r="H36">
         <v>2880</v>
@@ -2711,7 +2714,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L36">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M36">
         <v>550</v>
@@ -2726,19 +2729,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2755,13 +2758,13 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>127</v>
       </c>
       <c r="G37">
-        <v>378.602952465612</v>
+        <v>378.607580233691</v>
       </c>
       <c r="H37">
         <v>2880</v>
@@ -2776,7 +2779,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L37">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M37">
         <v>550</v>
@@ -2791,19 +2794,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2820,13 +2823,13 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>0.00173</v>
       </c>
       <c r="G38">
-        <v>0.0055309793539815</v>
+        <v>0.0055393437565101</v>
       </c>
       <c r="H38">
         <v>0.055699557920691</v>
@@ -2850,19 +2853,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2879,13 +2882,13 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>0.00173</v>
       </c>
       <c r="G39">
-        <v>0.0055309793539815</v>
+        <v>0.0055393437565101</v>
       </c>
       <c r="H39">
         <v>0.055699557920691</v>
@@ -2909,19 +2912,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2938,13 +2941,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>0.008699999999999999</v>
       </c>
       <c r="G40">
-        <v>0.0805014652760348</v>
+        <v>0.0805002258800053</v>
       </c>
       <c r="H40">
         <v>1.2591</v>
@@ -2953,7 +2956,7 @@
         <v>0.3014</v>
       </c>
       <c r="L40">
-        <v>0.001</v>
+        <v>0.00125</v>
       </c>
       <c r="M40">
         <v>0.123</v>
@@ -2968,19 +2971,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2997,13 +3000,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>0.008699999999999999</v>
       </c>
       <c r="G41">
-        <v>0.0805014652760348</v>
+        <v>0.0805002258800053</v>
       </c>
       <c r="H41">
         <v>1.2591</v>
@@ -3012,7 +3015,7 @@
         <v>0.3014</v>
       </c>
       <c r="L41">
-        <v>0.001</v>
+        <v>0.00125</v>
       </c>
       <c r="M41">
         <v>0.123</v>
@@ -3027,19 +3030,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3053,13 +3056,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>0.02255</v>
       </c>
       <c r="G42">
-        <v>0.107615928493694</v>
+        <v>0.10762177870129</v>
       </c>
       <c r="H42">
         <v>1.8462</v>
@@ -3068,7 +3071,7 @@
         <v>0.35065</v>
       </c>
       <c r="L42">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="M42">
         <v>0.1557</v>
@@ -3083,19 +3086,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3109,13 +3112,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0.02255</v>
       </c>
       <c r="G43">
-        <v>0.107615928493694</v>
+        <v>0.10762177870129</v>
       </c>
       <c r="H43">
         <v>1.8462</v>
@@ -3124,7 +3127,7 @@
         <v>0.35065</v>
       </c>
       <c r="L43">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="M43">
         <v>0.1557</v>
@@ -3139,19 +3142,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3165,7 +3168,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0.2195</v>
@@ -3180,7 +3183,7 @@
         <v>1.35</v>
       </c>
       <c r="L44">
-        <v>0.205</v>
+        <v>0.199</v>
       </c>
       <c r="M44">
         <v>0.455</v>
@@ -3195,19 +3198,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3221,7 +3224,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0.2195</v>
@@ -3236,7 +3239,7 @@
         <v>1.35</v>
       </c>
       <c r="L45">
-        <v>0.205</v>
+        <v>0.199</v>
       </c>
       <c r="M45">
         <v>0.455</v>
@@ -3251,19 +3254,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3277,7 +3280,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0.022</v>
@@ -3292,7 +3295,7 @@
         <v>0.228</v>
       </c>
       <c r="L46">
-        <v>0.0235</v>
+        <v>0.0225</v>
       </c>
       <c r="M46">
         <v>0.0426</v>
@@ -3307,19 +3310,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3333,7 +3336,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0.022</v>
@@ -3348,7 +3351,7 @@
         <v>0.228</v>
       </c>
       <c r="L47">
-        <v>0.0235</v>
+        <v>0.0225</v>
       </c>
       <c r="M47">
         <v>0.0426</v>
@@ -3363,19 +3366,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3392,19 +3395,19 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>1.6</v>
       </c>
       <c r="G48">
-        <v>1.59526511500404</v>
+        <v>1.5867437908704</v>
       </c>
       <c r="H48">
         <v>3.5</v>
       </c>
       <c r="I48">
-        <v>3.37361</v>
+        <v>3.18546</v>
       </c>
       <c r="L48">
         <v>1.825</v>
@@ -3413,7 +3416,7 @@
         <v>2.1776</v>
       </c>
       <c r="N48">
-        <v>3.112</v>
+        <v>3.05529</v>
       </c>
       <c r="O48">
         <v>1840392.992</v>
@@ -3422,19 +3425,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3451,13 +3454,13 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0.011</v>
       </c>
       <c r="G49">
-        <v>0.0151016899758058</v>
+        <v>0.0151023425547114</v>
       </c>
       <c r="H49">
         <v>0.11</v>
@@ -3466,7 +3469,7 @@
         <v>0.0425</v>
       </c>
       <c r="L49">
-        <v>0.0155</v>
+        <v>0.012</v>
       </c>
       <c r="M49">
         <v>0.0183</v>
@@ -3481,19 +3484,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3510,13 +3513,13 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>0.011</v>
       </c>
       <c r="G50">
-        <v>0.0151016899758058</v>
+        <v>0.0151023425547114</v>
       </c>
       <c r="H50">
         <v>0.11</v>
@@ -3525,7 +3528,7 @@
         <v>0.0425</v>
       </c>
       <c r="L50">
-        <v>0.0155</v>
+        <v>0.012</v>
       </c>
       <c r="M50">
         <v>0.0183</v>
@@ -3540,19 +3543,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3569,13 +3572,13 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>124</v>
       </c>
       <c r="G51">
-        <v>299.969619132279</v>
+        <v>299.974246900358</v>
       </c>
       <c r="H51">
         <v>2420</v>
@@ -3590,7 +3593,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L51">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M51">
         <v>523.9</v>
@@ -3605,19 +3608,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3634,13 +3637,13 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>124</v>
       </c>
       <c r="G52">
-        <v>299.969619132279</v>
+        <v>299.974246900358</v>
       </c>
       <c r="H52">
         <v>2420</v>
@@ -3655,7 +3658,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L52">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M52">
         <v>523.9</v>
@@ -3670,19 +3673,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3699,13 +3702,13 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>124</v>
       </c>
       <c r="G53">
-        <v>299.969619132279</v>
+        <v>299.974246900358</v>
       </c>
       <c r="H53">
         <v>2420</v>
@@ -3720,7 +3723,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L53">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M53">
         <v>523.9</v>
@@ -3735,19 +3738,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3764,13 +3767,13 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>124</v>
       </c>
       <c r="G54">
-        <v>299.969619132279</v>
+        <v>299.974246900358</v>
       </c>
       <c r="H54">
         <v>2420</v>
@@ -3785,7 +3788,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L54">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M54">
         <v>523.9</v>
@@ -3800,19 +3803,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3829,13 +3832,13 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55">
-        <v>0.00166</v>
+        <v>0.00171</v>
       </c>
       <c r="G55">
-        <v>0.0046117596442351</v>
+        <v>0.0046411181732573</v>
       </c>
       <c r="H55">
         <v>0.055699557920691</v>
@@ -3844,7 +3847,7 @@
         <v>0.0244</v>
       </c>
       <c r="L55">
-        <v>0.00145</v>
+        <v>0.00166</v>
       </c>
       <c r="M55">
         <v>0.00584</v>
@@ -3859,19 +3862,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3888,13 +3891,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56">
-        <v>0.00166</v>
+        <v>0.00171</v>
       </c>
       <c r="G56">
-        <v>0.0046117596442351</v>
+        <v>0.0046411181732573</v>
       </c>
       <c r="H56">
         <v>0.055699557920691</v>
@@ -3903,7 +3906,7 @@
         <v>0.0244</v>
       </c>
       <c r="L56">
-        <v>0.00145</v>
+        <v>0.00166</v>
       </c>
       <c r="M56">
         <v>0.00584</v>
@@ -3918,19 +3921,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3947,13 +3950,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>0.0051</v>
       </c>
       <c r="G57">
-        <v>0.07720905252942541</v>
+        <v>0.0772075128561469</v>
       </c>
       <c r="H57">
         <v>1.2591</v>
@@ -3962,7 +3965,7 @@
         <v>0.2814</v>
       </c>
       <c r="L57">
-        <v>0.001</v>
+        <v>0.00125</v>
       </c>
       <c r="M57">
         <v>0.11532</v>
@@ -3977,19 +3980,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4006,13 +4009,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>0.0051</v>
       </c>
       <c r="G58">
-        <v>0.07720905252942541</v>
+        <v>0.0772075128561469</v>
       </c>
       <c r="H58">
         <v>1.2591</v>
@@ -4021,7 +4024,7 @@
         <v>0.2814</v>
       </c>
       <c r="L58">
-        <v>0.001</v>
+        <v>0.00125</v>
       </c>
       <c r="M58">
         <v>0.11532</v>
@@ -4036,19 +4039,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4062,13 +4065,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>0.015</v>
       </c>
       <c r="G59">
-        <v>0.0978326462813229</v>
+        <v>0.0978395727828575</v>
       </c>
       <c r="H59">
         <v>1.8462</v>
@@ -4077,7 +4080,7 @@
         <v>0.32015</v>
       </c>
       <c r="L59">
-        <v>0.0086</v>
+        <v>0.012</v>
       </c>
       <c r="M59">
         <v>0.13126</v>
@@ -4092,19 +4095,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4118,13 +4121,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60">
         <v>0.015</v>
       </c>
       <c r="G60">
-        <v>0.0978326462813229</v>
+        <v>0.0978395727828575</v>
       </c>
       <c r="H60">
         <v>1.8462</v>
@@ -4133,7 +4136,7 @@
         <v>0.32015</v>
       </c>
       <c r="L60">
-        <v>0.0086</v>
+        <v>0.012</v>
       </c>
       <c r="M60">
         <v>0.13126</v>
@@ -4148,19 +4151,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4174,7 +4177,7 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>0.2195</v>
@@ -4189,7 +4192,7 @@
         <v>1.155</v>
       </c>
       <c r="L61">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="M61">
         <v>0.413</v>
@@ -4204,19 +4207,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4230,7 +4233,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>0.2195</v>
@@ -4245,7 +4248,7 @@
         <v>1.155</v>
       </c>
       <c r="L62">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="M62">
         <v>0.413</v>
@@ -4260,19 +4263,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4286,7 +4289,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>0.023</v>
@@ -4316,19 +4319,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4342,7 +4345,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>0.023</v>
@@ -4372,19 +4375,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4401,22 +4404,22 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>1.536</v>
       </c>
       <c r="G65">
-        <v>1.36577808689194</v>
+        <v>1.35933975310208</v>
       </c>
       <c r="H65">
         <v>3.5</v>
       </c>
       <c r="I65">
-        <v>3.25425</v>
+        <v>3.14547</v>
       </c>
       <c r="L65">
-        <v>1.625</v>
+        <v>1.6</v>
       </c>
       <c r="M65">
         <v>2.085</v>
@@ -4431,19 +4434,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4460,13 +4463,13 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66">
         <v>0.012</v>
       </c>
       <c r="G66">
-        <v>0.0161589755674971</v>
+        <v>0.0161593060579663</v>
       </c>
       <c r="H66">
         <v>0.11</v>
@@ -4475,7 +4478,7 @@
         <v>0.042</v>
       </c>
       <c r="L66">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="M66">
         <v>0.019</v>
@@ -4490,19 +4493,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4519,13 +4522,13 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0.012</v>
       </c>
       <c r="G67">
-        <v>0.0161589755674971</v>
+        <v>0.0161593060579663</v>
       </c>
       <c r="H67">
         <v>0.11</v>
@@ -4534,7 +4537,7 @@
         <v>0.042</v>
       </c>
       <c r="L67">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="M67">
         <v>0.019</v>
@@ -4549,19 +4552,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4578,16 +4581,16 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>124</v>
       </c>
       <c r="G68">
-        <v>350.46868618471</v>
+        <v>298.756326094163</v>
       </c>
       <c r="H68">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I68">
         <v>730</v>
@@ -4599,7 +4602,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L68">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M68">
         <v>393.7</v>
@@ -4614,19 +4617,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4643,16 +4646,16 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <v>124</v>
       </c>
       <c r="G69">
-        <v>350.46868618471</v>
+        <v>298.756326094163</v>
       </c>
       <c r="H69">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I69">
         <v>730</v>
@@ -4664,7 +4667,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L69">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M69">
         <v>393.7</v>
@@ -4679,19 +4682,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4708,16 +4711,16 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70">
         <v>124</v>
       </c>
       <c r="G70">
-        <v>350.46868618471</v>
+        <v>298.756326094163</v>
       </c>
       <c r="H70">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I70">
         <v>730</v>
@@ -4729,7 +4732,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L70">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M70">
         <v>393.7</v>
@@ -4744,19 +4747,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4773,16 +4776,16 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>124</v>
       </c>
       <c r="G71">
-        <v>350.46868618471</v>
+        <v>298.756326094163</v>
       </c>
       <c r="H71">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I71">
         <v>730</v>
@@ -4794,7 +4797,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="L71">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M71">
         <v>393.7</v>
@@ -4809,19 +4812,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4838,13 +4841,13 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72">
-        <v>0.00196</v>
+        <v>0.00197</v>
       </c>
       <c r="G72">
-        <v>0.0051808501728841</v>
+        <v>0.0052155426615559</v>
       </c>
       <c r="H72">
         <v>0.055699557920691</v>
@@ -4853,7 +4856,7 @@
         <v>0.02499</v>
       </c>
       <c r="L72">
-        <v>0.00176</v>
+        <v>0.00197</v>
       </c>
       <c r="M72">
         <v>0.00657</v>
@@ -4868,19 +4871,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4897,13 +4900,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73">
-        <v>0.00196</v>
+        <v>0.00197</v>
       </c>
       <c r="G73">
-        <v>0.0051808501728841</v>
+        <v>0.0052155426615559</v>
       </c>
       <c r="H73">
         <v>0.055699557920691</v>
@@ -4912,7 +4915,7 @@
         <v>0.02499</v>
       </c>
       <c r="L73">
-        <v>0.00176</v>
+        <v>0.00197</v>
       </c>
       <c r="M73">
         <v>0.00657</v>
@@ -4927,19 +4930,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4956,13 +4959,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <v>0.0051</v>
       </c>
       <c r="G74">
-        <v>0.0757278763667142</v>
+        <v>0.07572590559556271</v>
       </c>
       <c r="H74">
         <v>1.2591</v>
@@ -4986,19 +4989,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5015,13 +5018,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <v>0.0051</v>
       </c>
       <c r="G75">
-        <v>0.0757278763667142</v>
+        <v>0.07572590559556271</v>
       </c>
       <c r="H75">
         <v>1.2591</v>
@@ -5045,19 +5048,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5071,13 +5074,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76">
         <v>0.0144</v>
       </c>
       <c r="G76">
-        <v>0.0942920488474825</v>
+        <v>0.0942998085545726</v>
       </c>
       <c r="H76">
         <v>1.8462</v>
@@ -5086,7 +5089,7 @@
         <v>0.32015</v>
       </c>
       <c r="L76">
-        <v>0.00775</v>
+        <v>0.0105</v>
       </c>
       <c r="M76">
         <v>0.13606</v>
@@ -5101,19 +5104,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5127,13 +5130,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77">
         <v>0.0144</v>
       </c>
       <c r="G77">
-        <v>0.0942920488474825</v>
+        <v>0.0942998085545726</v>
       </c>
       <c r="H77">
         <v>1.8462</v>
@@ -5142,7 +5145,7 @@
         <v>0.32015</v>
       </c>
       <c r="L77">
-        <v>0.00775</v>
+        <v>0.0105</v>
       </c>
       <c r="M77">
         <v>0.13606</v>
@@ -5157,19 +5160,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5183,7 +5186,7 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78">
         <v>0.22</v>
@@ -5198,7 +5201,7 @@
         <v>0.775</v>
       </c>
       <c r="L78">
-        <v>0.205</v>
+        <v>0.2145</v>
       </c>
       <c r="M78">
         <v>0.4134</v>
@@ -5213,19 +5216,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5239,7 +5242,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>0.22</v>
@@ -5254,7 +5257,7 @@
         <v>0.775</v>
       </c>
       <c r="L79">
-        <v>0.205</v>
+        <v>0.2145</v>
       </c>
       <c r="M79">
         <v>0.4134</v>
@@ -5269,19 +5272,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5295,7 +5298,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>0.024</v>
@@ -5325,19 +5328,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5351,7 +5354,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81">
         <v>0.024</v>
@@ -5381,19 +5384,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5410,22 +5413,22 @@
         <v>49</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <v>0.45</v>
       </c>
       <c r="G82">
-        <v>1.06795774276888</v>
+        <v>1.06179338062965</v>
       </c>
       <c r="H82">
         <v>3.5</v>
       </c>
       <c r="I82">
-        <v>3.23255</v>
+        <v>3.1382</v>
       </c>
       <c r="L82">
-        <v>1.433</v>
+        <v>1.33</v>
       </c>
       <c r="M82">
         <v>1.9551</v>
@@ -5440,19 +5443,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5469,13 +5472,13 @@
         <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>0.013</v>
       </c>
       <c r="G83">
-        <v>0.0166806042137624</v>
+        <v>0.0166807170855056</v>
       </c>
       <c r="H83">
         <v>0.08400000000000001</v>
@@ -5484,7 +5487,7 @@
         <v>0.046</v>
       </c>
       <c r="L83">
-        <v>0.0165</v>
+        <v>0.016</v>
       </c>
       <c r="M83">
         <v>0.019</v>
@@ -5499,19 +5502,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5528,13 +5531,13 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>0.013</v>
       </c>
       <c r="G84">
-        <v>0.0166806042137624</v>
+        <v>0.0166807170855056</v>
       </c>
       <c r="H84">
         <v>0.08400000000000001</v>
@@ -5543,7 +5546,7 @@
         <v>0.046</v>
       </c>
       <c r="L84">
-        <v>0.0165</v>
+        <v>0.016</v>
       </c>
       <c r="M84">
         <v>0.019</v>
@@ -5558,19 +5561,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,16 +5590,16 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>144</v>
       </c>
       <c r="G85">
-        <v>382.76868618471</v>
+        <v>331.056326094163</v>
       </c>
       <c r="H85">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I85">
         <v>1085</v>
@@ -5608,7 +5611,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L85">
-        <v>214</v>
+        <v>251.5</v>
       </c>
       <c r="M85">
         <v>450.4</v>
@@ -5623,19 +5626,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5652,16 +5655,16 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>144</v>
       </c>
       <c r="G86">
-        <v>382.76868618471</v>
+        <v>331.056326094163</v>
       </c>
       <c r="H86">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I86">
         <v>1085</v>
@@ -5673,7 +5676,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L86">
-        <v>214</v>
+        <v>251.5</v>
       </c>
       <c r="M86">
         <v>450.4</v>
@@ -5688,19 +5691,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5717,16 +5720,16 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87">
         <v>144</v>
       </c>
       <c r="G87">
-        <v>382.76868618471</v>
+        <v>331.056326094163</v>
       </c>
       <c r="H87">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I87">
         <v>1085</v>
@@ -5738,7 +5741,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L87">
-        <v>214</v>
+        <v>251.5</v>
       </c>
       <c r="M87">
         <v>450.4</v>
@@ -5753,19 +5756,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5782,16 +5785,16 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <v>144</v>
       </c>
       <c r="G88">
-        <v>382.76868618471</v>
+        <v>331.056326094163</v>
       </c>
       <c r="H88">
-        <v>7111.94402314587</v>
+        <v>4008.92475162831</v>
       </c>
       <c r="I88">
         <v>1085</v>
@@ -5803,7 +5806,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L88">
-        <v>214</v>
+        <v>251.5</v>
       </c>
       <c r="M88">
         <v>450.4</v>
@@ -5818,19 +5821,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5847,13 +5850,13 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89">
-        <v>0.00235</v>
+        <v>0.00247</v>
       </c>
       <c r="G89">
-        <v>0.0058010149156169</v>
+        <v>0.0058525373333133</v>
       </c>
       <c r="H89">
         <v>0.055699557920691</v>
@@ -5862,7 +5865,7 @@
         <v>0.02516</v>
       </c>
       <c r="L89">
-        <v>0.00221</v>
+        <v>0.00272</v>
       </c>
       <c r="M89">
         <v>0.009809999999999999</v>
@@ -5877,19 +5880,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5906,13 +5909,13 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90">
-        <v>0.00235</v>
+        <v>0.00247</v>
       </c>
       <c r="G90">
-        <v>0.0058010149156169</v>
+        <v>0.0058525373333133</v>
       </c>
       <c r="H90">
         <v>0.055699557920691</v>
@@ -5921,7 +5924,7 @@
         <v>0.02516</v>
       </c>
       <c r="L90">
-        <v>0.00221</v>
+        <v>0.00272</v>
       </c>
       <c r="M90">
         <v>0.009809999999999999</v>
@@ -5936,19 +5939,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5965,13 +5968,13 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <v>0.0128</v>
       </c>
       <c r="G91">
-        <v>0.064738645525293</v>
+        <v>0.0647356562133779</v>
       </c>
       <c r="H91">
         <v>0.459</v>
@@ -5980,7 +5983,7 @@
         <v>0.2814</v>
       </c>
       <c r="L91">
-        <v>0.001</v>
+        <v>0.0025</v>
       </c>
       <c r="M91">
         <v>0.1227</v>
@@ -5995,19 +5998,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6024,13 +6027,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92">
         <v>0.0128</v>
       </c>
       <c r="G92">
-        <v>0.064738645525293</v>
+        <v>0.0647356562133779</v>
       </c>
       <c r="H92">
         <v>0.459</v>
@@ -6039,7 +6042,7 @@
         <v>0.2814</v>
       </c>
       <c r="L92">
-        <v>0.001</v>
+        <v>0.0025</v>
       </c>
       <c r="M92">
         <v>0.1227</v>
@@ -6054,19 +6057,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6080,13 +6083,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>0.0212</v>
       </c>
       <c r="G93">
-        <v>0.0734854159597801</v>
+        <v>0.0734937024908444</v>
       </c>
       <c r="H93">
         <v>0.475</v>
@@ -6095,7 +6098,7 @@
         <v>0.3125</v>
       </c>
       <c r="L93">
-        <v>0.0086</v>
+        <v>0.0105</v>
       </c>
       <c r="M93">
         <v>0.13606</v>
@@ -6110,19 +6113,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6136,13 +6139,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <v>0.0212</v>
       </c>
       <c r="G94">
-        <v>0.0734854159597801</v>
+        <v>0.0734937024908444</v>
       </c>
       <c r="H94">
         <v>0.475</v>
@@ -6151,7 +6154,7 @@
         <v>0.3125</v>
       </c>
       <c r="L94">
-        <v>0.0086</v>
+        <v>0.0105</v>
       </c>
       <c r="M94">
         <v>0.13606</v>
@@ -6166,19 +6169,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6192,7 +6195,7 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95">
         <v>0.2525</v>
@@ -6222,19 +6225,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6248,7 +6251,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96">
         <v>0.2525</v>
@@ -6278,19 +6281,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6304,7 +6307,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>0.03</v>
@@ -6319,7 +6322,7 @@
         <v>0.1</v>
       </c>
       <c r="L97">
-        <v>0.0305</v>
+        <v>0.03</v>
       </c>
       <c r="M97">
         <v>0.0456</v>
@@ -6334,19 +6337,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6360,7 +6363,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98">
         <v>0.03</v>
@@ -6375,7 +6378,7 @@
         <v>0.1</v>
       </c>
       <c r="L98">
-        <v>0.0305</v>
+        <v>0.03</v>
       </c>
       <c r="M98">
         <v>0.0456</v>
@@ -6390,19 +6393,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6419,7 +6422,7 @@
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>0.42</v>
@@ -6434,7 +6437,7 @@
         <v>2.39</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M99">
         <v>1.597</v>
@@ -6449,19 +6452,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6478,13 +6481,13 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>0.013</v>
       </c>
       <c r="G100">
-        <v>0.016097270880429</v>
+        <v>0.0160973837521723</v>
       </c>
       <c r="H100">
         <v>0.08400000000000001</v>
@@ -6508,19 +6511,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,13 +6540,13 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101">
         <v>0.013</v>
       </c>
       <c r="G101">
-        <v>0.016097270880429</v>
+        <v>0.0160973837521723</v>
       </c>
       <c r="H101">
         <v>0.08400000000000001</v>
@@ -6567,19 +6570,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6596,16 +6599,16 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102">
         <v>120</v>
       </c>
       <c r="G102">
-        <v>458.445533923842</v>
+        <v>395.062601483099</v>
       </c>
       <c r="H102">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I102">
         <v>2050</v>
@@ -6617,7 +6620,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L102">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M102">
         <v>450.4</v>
@@ -6632,19 +6635,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6661,16 +6664,16 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103">
         <v>120</v>
       </c>
       <c r="G103">
-        <v>458.445533923842</v>
+        <v>395.062601483099</v>
       </c>
       <c r="H103">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I103">
         <v>2050</v>
@@ -6682,7 +6685,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L103">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M103">
         <v>450.4</v>
@@ -6697,19 +6700,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6726,16 +6729,16 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104">
         <v>120</v>
       </c>
       <c r="G104">
-        <v>458.445533923842</v>
+        <v>395.062601483099</v>
       </c>
       <c r="H104">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I104">
         <v>2050</v>
@@ -6747,7 +6750,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L104">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M104">
         <v>450.4</v>
@@ -6762,19 +6765,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6791,16 +6794,16 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105">
         <v>120</v>
       </c>
       <c r="G105">
-        <v>458.445533923842</v>
+        <v>395.062601483099</v>
       </c>
       <c r="H105">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I105">
         <v>2050</v>
@@ -6812,7 +6815,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L105">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M105">
         <v>450.4</v>
@@ -6827,19 +6830,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6856,13 +6859,13 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106">
-        <v>0.00442</v>
+        <v>0.00452</v>
       </c>
       <c r="G106">
-        <v>0.0069280002757596</v>
+        <v>0.0069750677511765</v>
       </c>
       <c r="H106">
         <v>0.055699557920691</v>
@@ -6871,7 +6874,7 @@
         <v>0.02559</v>
       </c>
       <c r="L106">
-        <v>0.0032</v>
+        <v>0.00405</v>
       </c>
       <c r="M106">
         <v>0.00992</v>
@@ -6886,19 +6889,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6915,13 +6918,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F107">
-        <v>0.00442</v>
+        <v>0.00452</v>
       </c>
       <c r="G107">
-        <v>0.0069280002757596</v>
+        <v>0.0069750677511765</v>
       </c>
       <c r="H107">
         <v>0.055699557920691</v>
@@ -6930,7 +6933,7 @@
         <v>0.02559</v>
       </c>
       <c r="L107">
-        <v>0.0032</v>
+        <v>0.00405</v>
       </c>
       <c r="M107">
         <v>0.00992</v>
@@ -6945,19 +6948,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6974,13 +6977,13 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108">
         <v>0.021</v>
       </c>
       <c r="G108">
-        <v>0.0779950401367783</v>
+        <v>0.0779893558957057</v>
       </c>
       <c r="H108">
         <v>0.459</v>
@@ -6989,7 +6992,7 @@
         <v>0.2969</v>
       </c>
       <c r="L108">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="M108">
         <v>0.1726</v>
@@ -7004,19 +7007,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7033,13 +7036,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109">
         <v>0.021</v>
       </c>
       <c r="G109">
-        <v>0.0779950401367783</v>
+        <v>0.0779893558957057</v>
       </c>
       <c r="H109">
         <v>0.459</v>
@@ -7048,7 +7051,7 @@
         <v>0.2969</v>
       </c>
       <c r="L109">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="M109">
         <v>0.1726</v>
@@ -7063,19 +7066,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7089,13 +7092,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110">
         <v>0.04</v>
       </c>
       <c r="G110">
-        <v>0.08826552649052</v>
+        <v>0.0882720097126813</v>
       </c>
       <c r="H110">
         <v>0.475</v>
@@ -7104,7 +7107,7 @@
         <v>0.345</v>
       </c>
       <c r="L110">
-        <v>0.0097</v>
+        <v>0.012</v>
       </c>
       <c r="M110">
         <v>0.18</v>
@@ -7119,19 +7122,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7145,13 +7148,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111">
         <v>0.04</v>
       </c>
       <c r="G111">
-        <v>0.08826552649052</v>
+        <v>0.0882720097126813</v>
       </c>
       <c r="H111">
         <v>0.475</v>
@@ -7160,7 +7163,7 @@
         <v>0.345</v>
       </c>
       <c r="L111">
-        <v>0.0097</v>
+        <v>0.012</v>
       </c>
       <c r="M111">
         <v>0.18</v>
@@ -7175,19 +7178,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7201,7 +7204,7 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112">
         <v>0.27</v>
@@ -7231,19 +7234,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7257,7 +7260,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113">
         <v>0.27</v>
@@ -7287,19 +7290,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7313,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F114">
         <v>0.031</v>
@@ -7343,19 +7346,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7369,7 +7372,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115">
         <v>0.031</v>
@@ -7399,19 +7402,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7428,7 +7431,7 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <v>0.33</v>
@@ -7443,7 +7446,7 @@
         <v>2.498</v>
       </c>
       <c r="L116">
-        <v>0.7165</v>
+        <v>0.4315</v>
       </c>
       <c r="M116">
         <v>1.5557</v>
@@ -7458,19 +7461,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7487,13 +7490,13 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117">
         <v>0.012</v>
       </c>
       <c r="G117">
-        <v>0.0150650212343346</v>
+        <v>0.0150651360191583</v>
       </c>
       <c r="H117">
         <v>0.08400000000000001</v>
@@ -7502,7 +7505,7 @@
         <v>0.0294</v>
       </c>
       <c r="L117">
-        <v>0.0125</v>
+        <v>0.012</v>
       </c>
       <c r="M117">
         <v>0.01847</v>
@@ -7517,19 +7520,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,13 +7549,13 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>0.012</v>
       </c>
       <c r="G118">
-        <v>0.0150650212343346</v>
+        <v>0.0150651360191583</v>
       </c>
       <c r="H118">
         <v>0.08400000000000001</v>
@@ -7561,7 +7564,7 @@
         <v>0.0294</v>
       </c>
       <c r="L118">
-        <v>0.0125</v>
+        <v>0.012</v>
       </c>
       <c r="M118">
         <v>0.01847</v>
@@ -7576,19 +7579,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7605,16 +7608,16 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F119">
         <v>120</v>
       </c>
       <c r="G119">
-        <v>469.331438771081</v>
+        <v>404.869513134991</v>
       </c>
       <c r="H119">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I119">
         <v>2115</v>
@@ -7626,7 +7629,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L119">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="M119">
         <v>459.4</v>
@@ -7641,19 +7644,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7670,16 +7673,16 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>120</v>
       </c>
       <c r="G120">
-        <v>469.331438771081</v>
+        <v>404.869513134991</v>
       </c>
       <c r="H120">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I120">
         <v>2115</v>
@@ -7691,7 +7694,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L120">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="M120">
         <v>459.4</v>
@@ -7706,19 +7709,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7735,16 +7738,16 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121">
         <v>120</v>
       </c>
       <c r="G121">
-        <v>469.331438771081</v>
+        <v>404.869513134991</v>
       </c>
       <c r="H121">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I121">
         <v>2115</v>
@@ -7756,7 +7759,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L121">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="M121">
         <v>459.4</v>
@@ -7771,19 +7774,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7800,16 +7803,16 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F122">
         <v>120</v>
       </c>
       <c r="G122">
-        <v>469.331438771081</v>
+        <v>404.869513134991</v>
       </c>
       <c r="H122">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I122">
         <v>2115</v>
@@ -7821,7 +7824,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L122">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="M122">
         <v>459.4</v>
@@ -7836,19 +7839,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7865,13 +7868,13 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123">
-        <v>0.00478</v>
+        <v>0.00488</v>
       </c>
       <c r="G123">
-        <v>0.0072421030815956</v>
+        <v>0.007286198955792</v>
       </c>
       <c r="H123">
         <v>0.0374576441552636</v>
@@ -7880,10 +7883,10 @@
         <v>0.02559</v>
       </c>
       <c r="L123">
-        <v>0.00502</v>
+        <v>0.00507</v>
       </c>
       <c r="M123">
-        <v>0.01155</v>
+        <v>0.0115</v>
       </c>
       <c r="N123">
         <v>0.02064</v>
@@ -7895,19 +7898,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7924,13 +7927,13 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124">
-        <v>0.00478</v>
+        <v>0.00488</v>
       </c>
       <c r="G124">
-        <v>0.0072421030815956</v>
+        <v>0.007286198955792</v>
       </c>
       <c r="H124">
         <v>0.0374576441552636</v>
@@ -7939,10 +7942,10 @@
         <v>0.02559</v>
       </c>
       <c r="L124">
-        <v>0.00502</v>
+        <v>0.00507</v>
       </c>
       <c r="M124">
-        <v>0.01155</v>
+        <v>0.0115</v>
       </c>
       <c r="N124">
         <v>0.02064</v>
@@ -7954,19 +7957,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7983,13 +7986,13 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>0.033</v>
       </c>
       <c r="G125">
-        <v>0.0830933310009886</v>
+        <v>0.0830850238003136</v>
       </c>
       <c r="H125">
         <v>0.459</v>
@@ -7998,7 +8001,7 @@
         <v>0.2947</v>
       </c>
       <c r="L125">
-        <v>0.0025</v>
+        <v>0.005</v>
       </c>
       <c r="M125">
         <v>0.21276</v>
@@ -8013,19 +8016,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8042,13 +8045,13 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F126">
         <v>0.033</v>
       </c>
       <c r="G126">
-        <v>0.0830933310009886</v>
+        <v>0.0830850238003136</v>
       </c>
       <c r="H126">
         <v>0.459</v>
@@ -8057,7 +8060,7 @@
         <v>0.2947</v>
       </c>
       <c r="L126">
-        <v>0.0025</v>
+        <v>0.005</v>
       </c>
       <c r="M126">
         <v>0.21276</v>
@@ -8072,19 +8075,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8098,13 +8101,13 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <v>0.045</v>
       </c>
       <c r="G127">
-        <v>0.0934148454205011</v>
+        <v>0.09341548916412699</v>
       </c>
       <c r="H127">
         <v>0.475</v>
@@ -8128,19 +8131,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8154,13 +8157,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128">
         <v>0.045</v>
       </c>
       <c r="G128">
-        <v>0.0934148454205011</v>
+        <v>0.09341548916412699</v>
       </c>
       <c r="H128">
         <v>0.475</v>
@@ -8184,19 +8187,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8210,7 +8213,7 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F129">
         <v>0.27</v>
@@ -8225,7 +8228,7 @@
         <v>0.856</v>
       </c>
       <c r="L129">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="M129">
         <v>0.4888</v>
@@ -8240,19 +8243,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8266,7 +8269,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130">
         <v>0.27</v>
@@ -8281,7 +8284,7 @@
         <v>0.856</v>
       </c>
       <c r="L130">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="M130">
         <v>0.4888</v>
@@ -8296,19 +8299,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8322,7 +8325,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131">
         <v>0.031</v>
@@ -8337,7 +8340,7 @@
         <v>0.10555</v>
       </c>
       <c r="L131">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="M131">
         <v>0.04447</v>
@@ -8352,19 +8355,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8378,7 +8381,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132">
         <v>0.031</v>
@@ -8393,7 +8396,7 @@
         <v>0.10555</v>
       </c>
       <c r="L132">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="M132">
         <v>0.04447</v>
@@ -8408,19 +8411,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8437,7 +8440,7 @@
         <v>52</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F133">
         <v>0.335</v>
@@ -8452,7 +8455,7 @@
         <v>1.5458</v>
       </c>
       <c r="L133">
-        <v>0.43</v>
+        <v>0.423</v>
       </c>
       <c r="M133">
         <v>0.5342</v>
@@ -8467,19 +8470,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8496,7 +8499,7 @@
         <v>52</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134">
         <v>0.011</v>
@@ -8511,7 +8514,7 @@
         <v>0.02065</v>
       </c>
       <c r="L134">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="M134">
         <v>0.017</v>
@@ -8526,19 +8529,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8555,7 +8558,7 @@
         <v>52</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135">
         <v>0.011</v>
@@ -8570,7 +8573,7 @@
         <v>0.02065</v>
       </c>
       <c r="L135">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="M135">
         <v>0.017</v>
@@ -8585,19 +8588,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8614,16 +8617,16 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F136">
         <v>130</v>
       </c>
       <c r="G136">
-        <v>458.077201482945</v>
+        <v>393.615275846855</v>
       </c>
       <c r="H136">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I136">
         <v>2115</v>
@@ -8635,7 +8638,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L136">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M136">
         <v>439.4</v>
@@ -8650,19 +8653,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8679,16 +8682,16 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137">
         <v>130</v>
       </c>
       <c r="G137">
-        <v>458.077201482945</v>
+        <v>393.615275846855</v>
       </c>
       <c r="H137">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I137">
         <v>2115</v>
@@ -8700,7 +8703,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L137">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M137">
         <v>439.4</v>
@@ -8715,19 +8718,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8744,16 +8747,16 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138">
         <v>130</v>
       </c>
       <c r="G138">
-        <v>458.077201482945</v>
+        <v>393.615275846855</v>
       </c>
       <c r="H138">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I138">
         <v>2115</v>
@@ -8765,7 +8768,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L138">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M138">
         <v>439.4</v>
@@ -8780,19 +8783,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8809,16 +8812,16 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F139">
         <v>130</v>
       </c>
       <c r="G139">
-        <v>458.077201482945</v>
+        <v>393.615275846855</v>
       </c>
       <c r="H139">
-        <v>7111.94402314587</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I139">
         <v>2115</v>
@@ -8830,7 +8833,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L139">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M139">
         <v>439.4</v>
@@ -8845,19 +8848,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8874,13 +8877,13 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140">
-        <v>0.00516</v>
+        <v>0.00528</v>
       </c>
       <c r="G140">
-        <v>0.007929794738940701</v>
+        <v>0.007952701495431</v>
       </c>
       <c r="H140">
         <v>0.0374576441552636</v>
@@ -8889,10 +8892,10 @@
         <v>0.02559</v>
       </c>
       <c r="L140">
-        <v>0.00655</v>
+        <v>0.00656</v>
       </c>
       <c r="M140">
-        <v>0.01256</v>
+        <v>0.01251</v>
       </c>
       <c r="N140">
         <v>0.02211</v>
@@ -8904,19 +8907,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8933,13 +8936,13 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141">
-        <v>0.00516</v>
+        <v>0.00528</v>
       </c>
       <c r="G141">
-        <v>0.007929794738940701</v>
+        <v>0.007952701495431</v>
       </c>
       <c r="H141">
         <v>0.0374576441552636</v>
@@ -8948,10 +8951,10 @@
         <v>0.02559</v>
       </c>
       <c r="L141">
-        <v>0.00655</v>
+        <v>0.00656</v>
       </c>
       <c r="M141">
-        <v>0.01256</v>
+        <v>0.01251</v>
       </c>
       <c r="N141">
         <v>0.02211</v>
@@ -8963,19 +8966,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U141" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8992,13 +8995,13 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
         <v>0.038</v>
       </c>
       <c r="G142">
-        <v>0.0781237678489851</v>
+        <v>0.0781082535472151</v>
       </c>
       <c r="H142">
         <v>0.459</v>
@@ -9007,7 +9010,7 @@
         <v>0.2947</v>
       </c>
       <c r="L142">
-        <v>0.00206</v>
+        <v>0.005</v>
       </c>
       <c r="M142">
         <v>0.16875</v>
@@ -9022,19 +9025,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9051,13 +9054,13 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <v>0.038</v>
       </c>
       <c r="G143">
-        <v>0.0781237678489851</v>
+        <v>0.0781082535472151</v>
       </c>
       <c r="H143">
         <v>0.459</v>
@@ -9066,7 +9069,7 @@
         <v>0.2947</v>
       </c>
       <c r="L143">
-        <v>0.00206</v>
+        <v>0.005</v>
       </c>
       <c r="M143">
         <v>0.16875</v>
@@ -9081,19 +9084,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9107,13 +9110,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F144">
         <v>0.045</v>
       </c>
       <c r="G144">
-        <v>0.0881436069924038</v>
+        <v>0.0881431561998208</v>
       </c>
       <c r="H144">
         <v>0.475</v>
@@ -9137,19 +9140,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9163,13 +9166,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F145">
         <v>0.045</v>
       </c>
       <c r="G145">
-        <v>0.0881436069924038</v>
+        <v>0.0881431561998208</v>
       </c>
       <c r="H145">
         <v>0.475</v>
@@ -9193,19 +9196,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9219,7 +9222,7 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146">
         <v>0.26</v>
@@ -9234,7 +9237,7 @@
         <v>0.7765</v>
       </c>
       <c r="L146">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="M146">
         <v>0.4647</v>
@@ -9249,19 +9252,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9275,7 +9278,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F147">
         <v>0.26</v>
@@ -9290,7 +9293,7 @@
         <v>0.7765</v>
       </c>
       <c r="L147">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="M147">
         <v>0.4647</v>
@@ -9305,19 +9308,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9331,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F148">
         <v>0.03</v>
@@ -9361,19 +9364,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U148" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9387,7 +9390,7 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>0.03</v>
@@ -9417,19 +9420,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9446,7 +9449,7 @@
         <v>53</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F150">
         <v>0.011</v>
@@ -9461,7 +9464,7 @@
         <v>0.0256</v>
       </c>
       <c r="L150">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="M150">
         <v>0.017</v>
@@ -9476,19 +9479,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9505,7 +9508,7 @@
         <v>53</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151">
         <v>0.011</v>
@@ -9520,7 +9523,7 @@
         <v>0.0256</v>
       </c>
       <c r="L151">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="M151">
         <v>0.017</v>
@@ -9535,19 +9538,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9564,16 +9567,16 @@
         <v>53</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F152">
         <v>120</v>
       </c>
       <c r="G152">
-        <v>296.717428695654</v>
+        <v>284.644422816141</v>
       </c>
       <c r="H152">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I152">
         <v>1104</v>
@@ -9585,7 +9588,7 @@
         <v>22.4137931034483</v>
       </c>
       <c r="L152">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="M152">
         <v>333.84</v>
@@ -9600,19 +9603,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9629,16 +9632,16 @@
         <v>53</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F153">
         <v>120</v>
       </c>
       <c r="G153">
-        <v>296.717428695654</v>
+        <v>284.644422816141</v>
       </c>
       <c r="H153">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I153">
         <v>1104</v>
@@ -9650,7 +9653,7 @@
         <v>22.4137931034483</v>
       </c>
       <c r="L153">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="M153">
         <v>333.84</v>
@@ -9665,19 +9668,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9694,16 +9697,16 @@
         <v>53</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154">
         <v>120</v>
       </c>
       <c r="G154">
-        <v>296.717428695654</v>
+        <v>284.644422816141</v>
       </c>
       <c r="H154">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I154">
         <v>1104</v>
@@ -9715,7 +9718,7 @@
         <v>22.4137931034483</v>
       </c>
       <c r="L154">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="M154">
         <v>333.84</v>
@@ -9730,19 +9733,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U154" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9759,16 +9762,16 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>120</v>
       </c>
       <c r="G155">
-        <v>296.717428695654</v>
+        <v>284.644422816141</v>
       </c>
       <c r="H155">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I155">
         <v>1104</v>
@@ -9780,7 +9783,7 @@
         <v>22.4137931034483</v>
       </c>
       <c r="L155">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="M155">
         <v>333.84</v>
@@ -9795,19 +9798,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9824,13 +9827,13 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156">
-        <v>0.00516</v>
+        <v>0.00528</v>
       </c>
       <c r="G156">
-        <v>0.007915807130504601</v>
+        <v>0.0079266565885473</v>
       </c>
       <c r="H156">
         <v>0.0374576441552636</v>
@@ -9839,10 +9842,10 @@
         <v>0.02546</v>
       </c>
       <c r="L156">
-        <v>0.00731</v>
+        <v>0.00673</v>
       </c>
       <c r="M156">
-        <v>0.012</v>
+        <v>0.01189</v>
       </c>
       <c r="N156">
         <v>0.02166</v>
@@ -9854,19 +9857,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9883,13 +9886,13 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F157">
-        <v>0.00516</v>
+        <v>0.00528</v>
       </c>
       <c r="G157">
-        <v>0.007915807130504601</v>
+        <v>0.0079266565885473</v>
       </c>
       <c r="H157">
         <v>0.0374576441552636</v>
@@ -9898,10 +9901,10 @@
         <v>0.02546</v>
       </c>
       <c r="L157">
-        <v>0.00731</v>
+        <v>0.00673</v>
       </c>
       <c r="M157">
-        <v>0.012</v>
+        <v>0.01189</v>
       </c>
       <c r="N157">
         <v>0.02166</v>
@@ -9913,19 +9916,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U157" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9942,13 +9945,13 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F158">
         <v>0.018</v>
       </c>
       <c r="G158">
-        <v>0.0696798226146125</v>
+        <v>0.0696595806797177</v>
       </c>
       <c r="H158">
         <v>0.339</v>
@@ -9957,7 +9960,7 @@
         <v>0.2974</v>
       </c>
       <c r="L158">
-        <v>0.00229</v>
+        <v>0.004</v>
       </c>
       <c r="M158">
         <v>0.173</v>
@@ -9972,19 +9975,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U158" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -10001,13 +10004,13 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F159">
         <v>0.018</v>
       </c>
       <c r="G159">
-        <v>0.0696798226146125</v>
+        <v>0.0696595806797177</v>
       </c>
       <c r="H159">
         <v>0.339</v>
@@ -10016,7 +10019,7 @@
         <v>0.2974</v>
       </c>
       <c r="L159">
-        <v>0.00229</v>
+        <v>0.004</v>
       </c>
       <c r="M159">
         <v>0.173</v>
@@ -10031,19 +10034,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U159" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10057,13 +10060,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F160">
         <v>0.033</v>
       </c>
       <c r="G160">
-        <v>0.0792656665272802</v>
+        <v>0.07926434602562971</v>
       </c>
       <c r="H160">
         <v>0.35</v>
@@ -10087,19 +10090,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10113,13 +10116,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>0.033</v>
       </c>
       <c r="G161">
-        <v>0.0792656665272802</v>
+        <v>0.07926434602562971</v>
       </c>
       <c r="H161">
         <v>0.35</v>
@@ -10143,19 +10146,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10169,7 +10172,7 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F162">
         <v>0.245</v>
@@ -10199,19 +10202,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10225,7 +10228,7 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163">
         <v>0.245</v>
@@ -10255,19 +10258,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10281,7 +10284,7 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>0.027</v>
@@ -10296,7 +10299,7 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="L164">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="M164">
         <v>0.042</v>
@@ -10311,19 +10314,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U164" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10337,7 +10340,7 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165">
         <v>0.027</v>
@@ -10352,7 +10355,7 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="L165">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="M165">
         <v>0.042</v>
@@ -10367,19 +10370,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10396,7 +10399,7 @@
         <v>54</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>0.011</v>
@@ -10426,19 +10429,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10455,7 +10458,7 @@
         <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>0.011</v>
@@ -10485,19 +10488,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10514,19 +10517,19 @@
         <v>54</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>110</v>
       </c>
       <c r="G168">
-        <v>309.941566626688</v>
+        <v>297.875457298899</v>
       </c>
       <c r="H168">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I168">
-        <v>1105.2</v>
+        <v>1104.96</v>
       </c>
       <c r="J168">
         <v>6.89655172413793</v>
@@ -10535,10 +10538,10 @@
         <v>17.2413793103448</v>
       </c>
       <c r="L168">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M168">
-        <v>272.08</v>
+        <v>271.936</v>
       </c>
       <c r="N168">
         <v>467.2</v>
@@ -10550,19 +10553,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10579,19 +10582,19 @@
         <v>54</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>110</v>
       </c>
       <c r="G169">
-        <v>309.941566626688</v>
+        <v>297.875457298899</v>
       </c>
       <c r="H169">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I169">
-        <v>1105.2</v>
+        <v>1104.96</v>
       </c>
       <c r="J169">
         <v>6.89655172413793</v>
@@ -10600,10 +10603,10 @@
         <v>17.2413793103448</v>
       </c>
       <c r="L169">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M169">
-        <v>272.08</v>
+        <v>271.936</v>
       </c>
       <c r="N169">
         <v>467.2</v>
@@ -10615,19 +10618,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U169" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10644,19 +10647,19 @@
         <v>54</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>110</v>
       </c>
       <c r="G170">
-        <v>309.941566626688</v>
+        <v>297.875457298899</v>
       </c>
       <c r="H170">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I170">
-        <v>1105.2</v>
+        <v>1104.96</v>
       </c>
       <c r="J170">
         <v>6.89655172413793</v>
@@ -10665,10 +10668,10 @@
         <v>17.2413793103448</v>
       </c>
       <c r="L170">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M170">
-        <v>272.08</v>
+        <v>271.936</v>
       </c>
       <c r="N170">
         <v>467.2</v>
@@ -10680,19 +10683,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U170" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10709,19 +10712,19 @@
         <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>110</v>
       </c>
       <c r="G171">
-        <v>309.941566626688</v>
+        <v>297.875457298899</v>
       </c>
       <c r="H171">
-        <v>5620.79176313619</v>
+        <v>4920.24070557402</v>
       </c>
       <c r="I171">
-        <v>1105.2</v>
+        <v>1104.96</v>
       </c>
       <c r="J171">
         <v>6.89655172413793</v>
@@ -10730,10 +10733,10 @@
         <v>17.2413793103448</v>
       </c>
       <c r="L171">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M171">
-        <v>272.08</v>
+        <v>271.936</v>
       </c>
       <c r="N171">
         <v>467.2</v>
@@ -10745,19 +10748,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10774,13 +10777,13 @@
         <v>54</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>0.00541</v>
       </c>
       <c r="G172">
-        <v>0.007822038207359499</v>
+        <v>0.0078173500765175</v>
       </c>
       <c r="H172">
         <v>0.0374576441552636</v>
@@ -10789,10 +10792,10 @@
         <v>0.02533</v>
       </c>
       <c r="L172">
-        <v>0.00529</v>
+        <v>0.00626</v>
       </c>
       <c r="M172">
-        <v>0.0119</v>
+        <v>0.01182</v>
       </c>
       <c r="N172">
         <v>0.02103</v>
@@ -10804,19 +10807,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U172" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10833,13 +10836,13 @@
         <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>0.00541</v>
       </c>
       <c r="G173">
-        <v>0.007822038207359499</v>
+        <v>0.0078173500765175</v>
       </c>
       <c r="H173">
         <v>0.0374576441552636</v>
@@ -10848,10 +10851,10 @@
         <v>0.02533</v>
       </c>
       <c r="L173">
-        <v>0.00529</v>
+        <v>0.00626</v>
       </c>
       <c r="M173">
-        <v>0.0119</v>
+        <v>0.01182</v>
       </c>
       <c r="N173">
         <v>0.02103</v>
@@ -10863,19 +10866,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U173" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10892,13 +10895,13 @@
         <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
         <v>0.0125</v>
       </c>
       <c r="G174">
-        <v>0.0760972844516967</v>
+        <v>0.0760735249957966</v>
       </c>
       <c r="H174">
         <v>0.391</v>
@@ -10907,7 +10910,7 @@
         <v>0.3034</v>
       </c>
       <c r="L174">
-        <v>0.00229</v>
+        <v>0.004</v>
       </c>
       <c r="M174">
         <v>0.2116</v>
@@ -10922,19 +10925,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10951,13 +10954,13 @@
         <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175">
         <v>0.0125</v>
       </c>
       <c r="G175">
-        <v>0.0760972844516967</v>
+        <v>0.0760735249957966</v>
       </c>
       <c r="H175">
         <v>0.391</v>
@@ -10966,7 +10969,7 @@
         <v>0.3034</v>
       </c>
       <c r="L175">
-        <v>0.00229</v>
+        <v>0.004</v>
       </c>
       <c r="M175">
         <v>0.2116</v>
@@ -10981,19 +10984,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11007,13 +11010,13 @@
         <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>0.026</v>
       </c>
       <c r="G176">
-        <v>0.0858070108938688</v>
+        <v>0.08580514540190021</v>
       </c>
       <c r="H176">
         <v>0.406</v>
@@ -11022,7 +11025,7 @@
         <v>0.3328</v>
       </c>
       <c r="L176">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="M176">
         <v>0.22048</v>
@@ -11037,19 +11040,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11063,13 +11066,13 @@
         <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>0.026</v>
       </c>
       <c r="G177">
-        <v>0.0858070108938688</v>
+        <v>0.08580514540190021</v>
       </c>
       <c r="H177">
         <v>0.406</v>
@@ -11078,7 +11081,7 @@
         <v>0.3328</v>
       </c>
       <c r="L177">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="M177">
         <v>0.22048</v>
@@ -11093,19 +11096,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11119,7 +11122,7 @@
         <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>0.27</v>
@@ -11134,7 +11137,7 @@
         <v>0.628</v>
       </c>
       <c r="L178">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="M178">
         <v>0.4764</v>
@@ -11149,19 +11152,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11175,7 +11178,7 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>0.27</v>
@@ -11190,7 +11193,7 @@
         <v>0.628</v>
       </c>
       <c r="L179">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="M179">
         <v>0.4764</v>
@@ -11205,19 +11208,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U179" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11231,7 +11234,7 @@
         <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>0.027</v>
@@ -11246,7 +11249,7 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="L180">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="M180">
         <v>0.04364</v>
@@ -11261,19 +11264,19 @@
         <v>5604874.846</v>
       </c>
       <c r="Q180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U180" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11287,7 +11290,7 @@
         <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
         <v>0.027</v>
@@ -11302,7 +11305,7 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="L181">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="M181">
         <v>0.04364</v>
@@ -11317,19 +11320,969 @@
         <v>5604874.846</v>
       </c>
       <c r="Q181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U181" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" t="s">
+        <v>56</v>
+      </c>
+      <c r="F182">
+        <v>0.01</v>
+      </c>
+      <c r="G182">
+        <v>0.0109310344827586</v>
+      </c>
+      <c r="H182">
+        <v>0.026</v>
+      </c>
+      <c r="I182">
+        <v>0.0234</v>
+      </c>
+      <c r="L182">
+        <v>0.01</v>
+      </c>
+      <c r="M182">
+        <v>0.01464</v>
+      </c>
+      <c r="N182">
+        <v>0.02072</v>
+      </c>
+      <c r="O182">
+        <v>1840392.992</v>
+      </c>
+      <c r="P182">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>57</v>
+      </c>
+      <c r="R182" t="s">
+        <v>58</v>
+      </c>
+      <c r="S182" t="s">
+        <v>59</v>
+      </c>
+      <c r="T182" t="s">
+        <v>60</v>
+      </c>
+      <c r="U182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" t="s">
+        <v>56</v>
+      </c>
+      <c r="F183">
+        <v>0.01</v>
+      </c>
+      <c r="G183">
+        <v>0.0109310344827586</v>
+      </c>
+      <c r="H183">
+        <v>0.026</v>
+      </c>
+      <c r="I183">
+        <v>0.0234</v>
+      </c>
+      <c r="L183">
+        <v>0.01</v>
+      </c>
+      <c r="M183">
+        <v>0.01464</v>
+      </c>
+      <c r="N183">
+        <v>0.02072</v>
+      </c>
+      <c r="O183">
+        <v>1840392.992</v>
+      </c>
+      <c r="P183">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>57</v>
+      </c>
+      <c r="R183" t="s">
+        <v>58</v>
+      </c>
+      <c r="S183" t="s">
+        <v>59</v>
+      </c>
+      <c r="T183" t="s">
+        <v>60</v>
+      </c>
+      <c r="U183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" t="s">
+        <v>56</v>
+      </c>
+      <c r="F184">
+        <v>115</v>
+      </c>
+      <c r="G184">
+        <v>235.155172413793</v>
+      </c>
+      <c r="H184">
+        <v>3265.6</v>
+      </c>
+      <c r="I184">
+        <v>541.36</v>
+      </c>
+      <c r="J184">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K184">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L184">
+        <v>118.4</v>
+      </c>
+      <c r="M184">
+        <v>333.84</v>
+      </c>
+      <c r="N184">
+        <v>469.16</v>
+      </c>
+      <c r="O184">
+        <v>1840392.992</v>
+      </c>
+      <c r="P184">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>57</v>
+      </c>
+      <c r="R184" t="s">
+        <v>58</v>
+      </c>
+      <c r="S184" t="s">
+        <v>59</v>
+      </c>
+      <c r="T184" t="s">
+        <v>60</v>
+      </c>
+      <c r="U184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>56</v>
+      </c>
+      <c r="F185">
+        <v>115</v>
+      </c>
+      <c r="G185">
+        <v>235.155172413793</v>
+      </c>
+      <c r="H185">
+        <v>3265.6</v>
+      </c>
+      <c r="I185">
+        <v>541.36</v>
+      </c>
+      <c r="J185">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K185">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L185">
+        <v>118.4</v>
+      </c>
+      <c r="M185">
+        <v>333.84</v>
+      </c>
+      <c r="N185">
+        <v>469.16</v>
+      </c>
+      <c r="O185">
+        <v>1840392.992</v>
+      </c>
+      <c r="P185">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>57</v>
+      </c>
+      <c r="R185" t="s">
+        <v>58</v>
+      </c>
+      <c r="S185" t="s">
+        <v>59</v>
+      </c>
+      <c r="T185" t="s">
+        <v>60</v>
+      </c>
+      <c r="U185" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>26</v>
+      </c>
+      <c r="C186" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186">
+        <v>115</v>
+      </c>
+      <c r="G186">
+        <v>235.155172413793</v>
+      </c>
+      <c r="H186">
+        <v>3265.6</v>
+      </c>
+      <c r="I186">
+        <v>541.36</v>
+      </c>
+      <c r="J186">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K186">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L186">
+        <v>118.4</v>
+      </c>
+      <c r="M186">
+        <v>333.84</v>
+      </c>
+      <c r="N186">
+        <v>469.16</v>
+      </c>
+      <c r="O186">
+        <v>1840392.992</v>
+      </c>
+      <c r="P186">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>57</v>
+      </c>
+      <c r="R186" t="s">
+        <v>58</v>
+      </c>
+      <c r="S186" t="s">
+        <v>59</v>
+      </c>
+      <c r="T186" t="s">
+        <v>60</v>
+      </c>
+      <c r="U186" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" t="s">
+        <v>39</v>
+      </c>
+      <c r="D187" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187">
+        <v>115</v>
+      </c>
+      <c r="G187">
+        <v>235.155172413793</v>
+      </c>
+      <c r="H187">
+        <v>3265.6</v>
+      </c>
+      <c r="I187">
+        <v>541.36</v>
+      </c>
+      <c r="J187">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K187">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L187">
+        <v>118.4</v>
+      </c>
+      <c r="M187">
+        <v>333.84</v>
+      </c>
+      <c r="N187">
+        <v>469.16</v>
+      </c>
+      <c r="O187">
+        <v>1840392.992</v>
+      </c>
+      <c r="P187">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>57</v>
+      </c>
+      <c r="R187" t="s">
+        <v>58</v>
+      </c>
+      <c r="S187" t="s">
+        <v>59</v>
+      </c>
+      <c r="T187" t="s">
+        <v>60</v>
+      </c>
+      <c r="U187" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188">
+        <v>0.00479</v>
+      </c>
+      <c r="G188">
+        <v>0.0071956416256332</v>
+      </c>
+      <c r="H188">
+        <v>0.0311515850026413</v>
+      </c>
+      <c r="I188">
+        <v>0.02118</v>
+      </c>
+      <c r="L188">
+        <v>0.0055</v>
+      </c>
+      <c r="M188">
+        <v>0.01266</v>
+      </c>
+      <c r="N188">
+        <v>0.01895</v>
+      </c>
+      <c r="O188">
+        <v>1840392.992</v>
+      </c>
+      <c r="P188">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="S188" t="s">
+        <v>59</v>
+      </c>
+      <c r="T188" t="s">
+        <v>60</v>
+      </c>
+      <c r="U188" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>37</v>
+      </c>
+      <c r="C189" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189">
+        <v>0.00479</v>
+      </c>
+      <c r="G189">
+        <v>0.0071956416256332</v>
+      </c>
+      <c r="H189">
+        <v>0.0311515850026413</v>
+      </c>
+      <c r="I189">
+        <v>0.02118</v>
+      </c>
+      <c r="L189">
+        <v>0.0055</v>
+      </c>
+      <c r="M189">
+        <v>0.01266</v>
+      </c>
+      <c r="N189">
+        <v>0.01895</v>
+      </c>
+      <c r="O189">
+        <v>1840392.992</v>
+      </c>
+      <c r="P189">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="T189" t="s">
+        <v>60</v>
+      </c>
+      <c r="U189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190">
+        <v>0.016</v>
+      </c>
+      <c r="G190">
+        <v>0.0741770388302862</v>
+      </c>
+      <c r="H190">
+        <v>0.391</v>
+      </c>
+      <c r="I190">
+        <v>0.2998</v>
+      </c>
+      <c r="L190">
+        <v>0.004</v>
+      </c>
+      <c r="M190">
+        <v>0.1948</v>
+      </c>
+      <c r="N190">
+        <v>0.26534</v>
+      </c>
+      <c r="O190">
+        <v>1840392.992</v>
+      </c>
+      <c r="P190">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>57</v>
+      </c>
+      <c r="R190" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
+      <c r="T190" t="s">
+        <v>60</v>
+      </c>
+      <c r="U190" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191">
+        <v>0.016</v>
+      </c>
+      <c r="G191">
+        <v>0.0741770388302862</v>
+      </c>
+      <c r="H191">
+        <v>0.391</v>
+      </c>
+      <c r="I191">
+        <v>0.2998</v>
+      </c>
+      <c r="L191">
+        <v>0.004</v>
+      </c>
+      <c r="M191">
+        <v>0.1948</v>
+      </c>
+      <c r="N191">
+        <v>0.26534</v>
+      </c>
+      <c r="O191">
+        <v>1840392.992</v>
+      </c>
+      <c r="P191">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>58</v>
+      </c>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
+      <c r="T191" t="s">
+        <v>60</v>
+      </c>
+      <c r="U191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192">
+        <v>0.028</v>
+      </c>
+      <c r="G192">
+        <v>0.08310344827586209</v>
+      </c>
+      <c r="H192">
+        <v>0.406</v>
+      </c>
+      <c r="I192">
+        <v>0.3168</v>
+      </c>
+      <c r="L192">
+        <v>0.01175</v>
+      </c>
+      <c r="M192">
+        <v>0.207</v>
+      </c>
+      <c r="N192">
+        <v>0.29998</v>
+      </c>
+      <c r="O192">
+        <v>1840392.992</v>
+      </c>
+      <c r="P192">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
+      <c r="T192" t="s">
+        <v>60</v>
+      </c>
+      <c r="U192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193">
+        <v>0.028</v>
+      </c>
+      <c r="G193">
+        <v>0.08310344827586209</v>
+      </c>
+      <c r="H193">
+        <v>0.406</v>
+      </c>
+      <c r="I193">
+        <v>0.3168</v>
+      </c>
+      <c r="L193">
+        <v>0.01175</v>
+      </c>
+      <c r="M193">
+        <v>0.207</v>
+      </c>
+      <c r="N193">
+        <v>0.29998</v>
+      </c>
+      <c r="O193">
+        <v>1840392.992</v>
+      </c>
+      <c r="P193">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
+      <c r="T193" t="s">
+        <v>60</v>
+      </c>
+      <c r="U193" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>0.27</v>
+      </c>
+      <c r="G194">
+        <v>0.308275862068966</v>
+      </c>
+      <c r="H194">
+        <v>0.91</v>
+      </c>
+      <c r="I194">
+        <v>0.628</v>
+      </c>
+      <c r="L194">
+        <v>0.215</v>
+      </c>
+      <c r="M194">
+        <v>0.47</v>
+      </c>
+      <c r="N194">
+        <v>0.5772</v>
+      </c>
+      <c r="O194">
+        <v>1840392.992</v>
+      </c>
+      <c r="P194">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>57</v>
+      </c>
+      <c r="R194" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
+      <c r="T194" t="s">
+        <v>60</v>
+      </c>
+      <c r="U194" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>0.27</v>
+      </c>
+      <c r="G195">
+        <v>0.308275862068966</v>
+      </c>
+      <c r="H195">
+        <v>0.91</v>
+      </c>
+      <c r="I195">
+        <v>0.628</v>
+      </c>
+      <c r="L195">
+        <v>0.215</v>
+      </c>
+      <c r="M195">
+        <v>0.47</v>
+      </c>
+      <c r="N195">
+        <v>0.5772</v>
+      </c>
+      <c r="O195">
+        <v>1840392.992</v>
+      </c>
+      <c r="P195">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
+      <c r="T195" t="s">
+        <v>60</v>
+      </c>
+      <c r="U195" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F196">
+        <v>0.0255</v>
+      </c>
+      <c r="G196">
+        <v>0.0322068965517241</v>
+      </c>
+      <c r="H196">
+        <v>0.103</v>
+      </c>
+      <c r="I196">
+        <v>0.0852</v>
+      </c>
+      <c r="L196">
+        <v>0.023</v>
+      </c>
+      <c r="M196">
+        <v>0.04464</v>
+      </c>
+      <c r="N196">
+        <v>0.0663</v>
+      </c>
+      <c r="O196">
+        <v>1840392.992</v>
+      </c>
+      <c r="P196">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>57</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
+      <c r="T196" t="s">
+        <v>60</v>
+      </c>
+      <c r="U196" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>35</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197">
+        <v>0.0255</v>
+      </c>
+      <c r="G197">
+        <v>0.0322068965517241</v>
+      </c>
+      <c r="H197">
+        <v>0.103</v>
+      </c>
+      <c r="I197">
+        <v>0.0852</v>
+      </c>
+      <c r="L197">
+        <v>0.023</v>
+      </c>
+      <c r="M197">
+        <v>0.04464</v>
+      </c>
+      <c r="N197">
+        <v>0.0663</v>
+      </c>
+      <c r="O197">
+        <v>1840392.992</v>
+      </c>
+      <c r="P197">
+        <v>5604874.846</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>57</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
+      <c r="T197" t="s">
+        <v>60</v>
+      </c>
+      <c r="U197" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
